--- a/output/ModelOutput.xlsx
+++ b/output/ModelOutput.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="RawRecruits" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="SR_for_paper" sheetId="6" r:id="rId6"/>
     <sheet name="GAM output" sheetId="7" r:id="rId7"/>
     <sheet name="GAM_station_followup" sheetId="8" r:id="rId8"/>
+    <sheet name="GAM_April" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="338">
   <si>
     <t>Model 1</t>
   </si>
@@ -934,6 +935,117 @@
   </si>
   <si>
     <t>-1.22e-08 (&lt;0.001)</t>
+  </si>
+  <si>
+    <t>1.3671 (&lt;0.001)</t>
+  </si>
+  <si>
+    <t>SC3 Spawners_Era2</t>
+  </si>
+  <si>
+    <t>SC3 Spawners_Era1</t>
+  </si>
+  <si>
+    <t>2.585 (&lt;0.001)</t>
+  </si>
+  <si>
+    <t>1.00 (&lt;0.001)</t>
+  </si>
+  <si>
+    <t>2.557 (&lt;0.001)</t>
+  </si>
+  <si>
+    <t>2.521 (0.0145)</t>
+  </si>
+  <si>
+    <t>2.281 (&lt;0.001)</t>
+  </si>
+  <si>
+    <t>1.950 (0.16)</t>
+  </si>
+  <si>
+    <t>5a</t>
+  </si>
+  <si>
+    <t>2.434 (&lt;0.001)</t>
+  </si>
+  <si>
+    <t>1.000 (0.003)</t>
+  </si>
+  <si>
+    <t>5b</t>
+  </si>
+  <si>
+    <t>2.421 (&lt;0.001)</t>
+  </si>
+  <si>
+    <t>1.000 (0.0293)</t>
+  </si>
+  <si>
+    <t>1b</t>
+  </si>
+  <si>
+    <t>2.461 (&lt;0.001)</t>
+  </si>
+  <si>
+    <t>2.446 (&lt;0.001)</t>
+  </si>
+  <si>
+    <t>1.000 (0.00287)</t>
+  </si>
+  <si>
+    <t>NE wind</t>
+  </si>
+  <si>
+    <t>1.000 (0.22381)</t>
+  </si>
+  <si>
+    <t>2.553 (&lt;0.001)</t>
+  </si>
+  <si>
+    <t>1.000 (0.00203)</t>
+  </si>
+  <si>
+    <t>1.749 (0.13822)</t>
+  </si>
+  <si>
+    <t>2.407 (&lt;0.001)</t>
+  </si>
+  <si>
+    <t>2.809 (0.0011)</t>
+  </si>
+  <si>
+    <t>SST_May_July</t>
+  </si>
+  <si>
+    <t>1.000 (0.0406)</t>
+  </si>
+  <si>
+    <t>9b</t>
+  </si>
+  <si>
+    <t>Flathead sole TBM-linear</t>
+  </si>
+  <si>
+    <t>2.45 (&lt;0.001)</t>
+  </si>
+  <si>
+    <t>-2.346e-06 (0.00353)</t>
+  </si>
+  <si>
+    <t>1.00 (0.638)</t>
+  </si>
+  <si>
+    <t>2.520 (&lt;0.001)</t>
+  </si>
+  <si>
+    <t>1.000 (0.00101)</t>
+  </si>
+  <si>
+    <t>2.564 (0.02951</t>
+  </si>
+  <si>
+    <t>df</t>
   </si>
 </sst>
 </file>
@@ -3670,8 +3782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3996,12 +4108,8 @@
       <c r="B35" s="2"/>
     </row>
     <row r="36" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B36" s="2">
-        <v>-61.649630000000002</v>
-      </c>
+      <c r="A36" s="3"/>
+      <c r="B36" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4272,8 +4380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5455,4 +5563,362 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="7" width="9" customWidth="1"/>
+    <col min="12" max="12" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.1796875" customWidth="1"/>
+    <col min="24" max="24" width="11.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" t="s">
+        <v>303</v>
+      </c>
+      <c r="G1" t="s">
+        <v>302</v>
+      </c>
+      <c r="H1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L1" t="s">
+        <v>133</v>
+      </c>
+      <c r="M1" t="s">
+        <v>330</v>
+      </c>
+      <c r="N1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O1" t="s">
+        <v>135</v>
+      </c>
+      <c r="P1" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" t="s">
+        <v>136</v>
+      </c>
+      <c r="S1" t="s">
+        <v>137</v>
+      </c>
+      <c r="T1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U1" t="s">
+        <v>139</v>
+      </c>
+      <c r="V1" t="s">
+        <v>141</v>
+      </c>
+      <c r="W1" t="s">
+        <v>140</v>
+      </c>
+      <c r="X1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2">
+        <v>4.407</v>
+      </c>
+      <c r="D2">
+        <v>81.724999999999994</v>
+      </c>
+      <c r="E2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3">
+        <v>4.4610000000000003</v>
+      </c>
+      <c r="D3">
+        <v>67.906999999999996</v>
+      </c>
+      <c r="E3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4">
+        <v>5.5839999999999996</v>
+      </c>
+      <c r="D4">
+        <v>79.650000000000006</v>
+      </c>
+      <c r="F4" t="s">
+        <v>304</v>
+      </c>
+      <c r="G4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5">
+        <v>7.0780000000000003</v>
+      </c>
+      <c r="D5">
+        <v>64.784999999999997</v>
+      </c>
+      <c r="E5" t="s">
+        <v>306</v>
+      </c>
+      <c r="H5" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6">
+        <v>6.2309999999999999</v>
+      </c>
+      <c r="D6">
+        <v>81.373000000000005</v>
+      </c>
+      <c r="E6" t="s">
+        <v>308</v>
+      </c>
+      <c r="K6" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>310</v>
+      </c>
+      <c r="B7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7">
+        <v>5.4340000000000002</v>
+      </c>
+      <c r="D7">
+        <v>60.930999999999997</v>
+      </c>
+      <c r="E7" t="s">
+        <v>311</v>
+      </c>
+      <c r="L7" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>313</v>
+      </c>
+      <c r="B8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8">
+        <v>5.4210000000000003</v>
+      </c>
+      <c r="D8">
+        <v>65.460999999999999</v>
+      </c>
+      <c r="E8" t="s">
+        <v>314</v>
+      </c>
+      <c r="N8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9">
+        <v>6.4459999999999997</v>
+      </c>
+      <c r="D9">
+        <v>63.375999999999998</v>
+      </c>
+      <c r="E9" t="s">
+        <v>318</v>
+      </c>
+      <c r="L9" t="s">
+        <v>319</v>
+      </c>
+      <c r="P9" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10">
+        <v>7.7450000000000001</v>
+      </c>
+      <c r="D10">
+        <v>63.475000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11">
+        <v>7.3019999999999996</v>
+      </c>
+      <c r="D11">
+        <v>61.292999999999999</v>
+      </c>
+      <c r="E11" t="s">
+        <v>322</v>
+      </c>
+      <c r="L11" t="s">
+        <v>323</v>
+      </c>
+      <c r="O11" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12">
+        <v>8.2159999999999993</v>
+      </c>
+      <c r="D12">
+        <v>60.566000000000003</v>
+      </c>
+      <c r="E12" t="s">
+        <v>325</v>
+      </c>
+      <c r="L12" t="s">
+        <v>326</v>
+      </c>
+      <c r="X12" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>329</v>
+      </c>
+      <c r="B13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13">
+        <v>6.45</v>
+      </c>
+      <c r="D13">
+        <v>64.534000000000006</v>
+      </c>
+      <c r="E13" t="s">
+        <v>331</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="X13" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14">
+        <v>8.0830000000000002</v>
+      </c>
+      <c r="D14">
+        <v>55.636000000000003</v>
+      </c>
+      <c r="E14" t="s">
+        <v>334</v>
+      </c>
+      <c r="L14" t="s">
+        <v>335</v>
+      </c>
+      <c r="W14" t="s">
+        <v>336</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/output/ModelOutput.xlsx
+++ b/output/ModelOutput.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jon.Richar\Work\GitRepos\Chionoecetes-SR\Chionoecetes-SR\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jon.richar\Work\GitRepos\Chionoecetes-SR\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7188" firstSheet="6" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="RawRecruits" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,9 @@
     <sheet name="GAM output" sheetId="7" r:id="rId7"/>
     <sheet name="GAM_station_followup" sheetId="8" r:id="rId8"/>
     <sheet name="GAM_April" sheetId="9" r:id="rId9"/>
+    <sheet name="GAM_FROM PAPER" sheetId="10" r:id="rId10"/>
+    <sheet name="GAM_FINAL" sheetId="11" r:id="rId11"/>
+    <sheet name="GAMforPaper" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="391">
   <si>
     <t>Model 1</t>
   </si>
@@ -1046,13 +1049,196 @@
   </si>
   <si>
     <t>df</t>
+  </si>
+  <si>
+    <t>CB females</t>
+  </si>
+  <si>
+    <t>CB females (1978-2005)</t>
+  </si>
+  <si>
+    <t>CB females (2006-2019)</t>
+  </si>
+  <si>
+    <t>CO ovig females</t>
+  </si>
+  <si>
+    <t>FHS TBM</t>
+  </si>
+  <si>
+    <t>FHS TBM RA2</t>
+  </si>
+  <si>
+    <t>SST MJ</t>
+  </si>
+  <si>
+    <t>2.46 (&lt;0.001)</t>
+  </si>
+  <si>
+    <t>2.59 (&lt;0.001)</t>
+  </si>
+  <si>
+    <t>2.56 (&lt;0.001)</t>
+  </si>
+  <si>
+    <t>2.52 (0.015)</t>
+  </si>
+  <si>
+    <t>2.28 (&lt;0.001)</t>
+  </si>
+  <si>
+    <t>1.95 (0.16)</t>
+  </si>
+  <si>
+    <t>2.43 (&lt;0.001)</t>
+  </si>
+  <si>
+    <t>1.00 (0.003)</t>
+  </si>
+  <si>
+    <t>2.42 (&lt;0.001)</t>
+  </si>
+  <si>
+    <t>1.000 (0.029)</t>
+  </si>
+  <si>
+    <t>1.000 (0.224)</t>
+  </si>
+  <si>
+    <t>2.52 (&lt;0.001)</t>
+  </si>
+  <si>
+    <t>1.00 (0.001)</t>
+  </si>
+  <si>
+    <t>2.230 (0.304)</t>
+  </si>
+  <si>
+    <t>2.55 (&lt;0.001)</t>
+  </si>
+  <si>
+    <t>1.00 (0.002)</t>
+  </si>
+  <si>
+    <t>1.75 (0.14)</t>
+  </si>
+  <si>
+    <t>2.41 (&lt;0.001)</t>
+  </si>
+  <si>
+    <t>2.81 (0.001)</t>
+  </si>
+  <si>
+    <t>1.00 (0.041)</t>
+  </si>
+  <si>
+    <t>-2.35e-06 (0.004)</t>
+  </si>
+  <si>
+    <t>1.00 (0.442)</t>
+  </si>
+  <si>
+    <t>2.56 (0.03)</t>
+  </si>
+  <si>
+    <t>2.44 (&lt;0.001)</t>
+  </si>
+  <si>
+    <r>
+      <t>1.00 (0.032)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Way too much white space here. I would just report model structure (i.e., the covariates used in each) and AICc, both in columns. Also, the table should present delta-AICc and be sorted with increasing delta-AICc values</t>
+    </r>
+  </si>
+  <si>
+    <t>Delta AICc</t>
+  </si>
+  <si>
+    <t>Variables</t>
+  </si>
+  <si>
+    <t>CB females (1983 and later)</t>
+  </si>
+  <si>
+    <t>CB females (1978-2005. 2006 to 2019)</t>
+  </si>
+  <si>
+    <t>CB females, ovigerous CO females</t>
+  </si>
+  <si>
+    <t>CB females, 3 yr rolling average of Pacific cod</t>
+  </si>
+  <si>
+    <t>CB  (1983 and later) flathead sole TBM</t>
+  </si>
+  <si>
+    <t>CB females (1983 and later), flathead sole TBM 2 yr rolling average</t>
+  </si>
+  <si>
+    <t>CB females,flathead sole TBM</t>
+  </si>
+  <si>
+    <t>CB females, NE wind</t>
+  </si>
+  <si>
+    <t>CB females, SE wind</t>
+  </si>
+  <si>
+    <t>CB females,  flathead sole TBM, NBT 3-yr rolling average</t>
+  </si>
+  <si>
+    <t>CB females,  flathead sole TBM, AO 3-yr rolling average</t>
+  </si>
+  <si>
+    <t>CB females,  flathead sole TBM, SST MJ</t>
+  </si>
+  <si>
+    <t>CB females,  flathead sole TBM, SST MJ (GLS model)</t>
+  </si>
+  <si>
+    <t>CB females, SST MJ</t>
+  </si>
+  <si>
+    <t>CB females,  flathead sole TBM, PDO 3-yr rolling average</t>
+  </si>
+  <si>
+    <t>CB females,   PDO 3-yr rolling average</t>
+  </si>
+  <si>
+    <t>0 - baseline</t>
+  </si>
+  <si>
+    <t>Model variables</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1107,6 +1293,28 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1116,7 +1324,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1151,11 +1359,72 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1214,6 +1483,39 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1501,20 +1803,20 @@
       <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.08984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.1796875" customWidth="1"/>
-    <col min="18" max="18" width="20.6328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.109375" customWidth="1"/>
+    <col min="18" max="18" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1522,7 +1824,7 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1533,7 +1835,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1571,7 +1873,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
@@ -1610,7 +1912,7 @@
         <v>49.76</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1646,7 +1948,7 @@
         <v>47.17</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
@@ -1684,7 +1986,7 @@
         <v>47.06</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
@@ -1716,7 +2018,7 @@
         <v>46.45</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1730,7 +2032,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
@@ -1742,7 +2044,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>21</v>
       </c>
@@ -1754,12 +2056,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
       <c r="C11" s="2"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -1767,7 +2069,7 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
@@ -1778,7 +2080,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1789,7 +2091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>4</v>
       </c>
@@ -1800,7 +2102,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>7</v>
       </c>
@@ -1811,7 +2113,7 @@
         <v>0.1452</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>8</v>
       </c>
@@ -1822,7 +2124,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>6</v>
       </c>
@@ -1833,7 +2135,7 @@
         <v>1.1599999999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
         <v>17</v>
       </c>
@@ -1842,7 +2144,7 @@
       </c>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
         <v>21</v>
       </c>
@@ -1851,12 +2153,12 @@
       </c>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B21" s="3"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>11</v>
       </c>
@@ -1864,7 +2166,7 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
         <v>1</v>
       </c>
@@ -1875,7 +2177,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1886,7 +2188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
         <v>4</v>
       </c>
@@ -1897,7 +2199,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
         <v>7</v>
       </c>
@@ -1908,7 +2210,7 @@
         <v>5.33E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
         <v>12</v>
       </c>
@@ -1919,7 +2221,7 @@
         <v>8.8400000000000006E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
         <v>8</v>
       </c>
@@ -1930,7 +2232,7 @@
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
         <v>6</v>
       </c>
@@ -1941,7 +2243,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
         <v>17</v>
       </c>
@@ -1950,7 +2252,7 @@
       </c>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
         <v>21</v>
       </c>
@@ -1959,12 +2261,12 @@
       </c>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B32" s="3"/>
       <c r="C32" s="2"/>
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>10</v>
       </c>
@@ -1972,7 +2274,7 @@
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B34" s="3" t="s">
         <v>1</v>
       </c>
@@ -1983,7 +2285,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1994,7 +2296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B36" s="3" t="s">
         <v>4</v>
       </c>
@@ -2005,7 +2307,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B37" s="3" t="s">
         <v>8</v>
       </c>
@@ -2016,7 +2318,7 @@
         <v>1.1999999999999999E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B38" s="3" t="s">
         <v>6</v>
       </c>
@@ -2027,7 +2329,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B39" s="3" t="s">
         <v>17</v>
       </c>
@@ -2036,7 +2338,7 @@
       </c>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
         <v>21</v>
       </c>
@@ -2048,6 +2350,1464 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:N17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>338</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>340</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>341</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>342</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>343</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="K1" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="M1" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="N1" s="30" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="31">
+        <v>1</v>
+      </c>
+      <c r="B2" s="32">
+        <v>81.73</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+    </row>
+    <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="31">
+        <v>2</v>
+      </c>
+      <c r="B3" s="32">
+        <v>67.91</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>345</v>
+      </c>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+    </row>
+    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="31">
+        <v>3</v>
+      </c>
+      <c r="B4" s="32">
+        <v>79.650000000000006</v>
+      </c>
+      <c r="C4" s="33"/>
+      <c r="D4" s="32" t="s">
+        <v>346</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>305</v>
+      </c>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+    </row>
+    <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="31">
+        <v>4</v>
+      </c>
+      <c r="B5" s="32">
+        <v>64.790000000000006</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>347</v>
+      </c>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="32" t="s">
+        <v>348</v>
+      </c>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+    </row>
+    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="31">
+        <v>5</v>
+      </c>
+      <c r="B6" s="32">
+        <v>81.37</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>349</v>
+      </c>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="32" t="s">
+        <v>350</v>
+      </c>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+    </row>
+    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="31">
+        <v>6</v>
+      </c>
+      <c r="B7" s="32">
+        <v>60.93</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="32" t="s">
+        <v>352</v>
+      </c>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+    </row>
+    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="31">
+        <v>7</v>
+      </c>
+      <c r="B8" s="32">
+        <v>65.459999999999994</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>353</v>
+      </c>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+    </row>
+    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="31">
+        <v>8</v>
+      </c>
+      <c r="B9" s="32">
+        <v>61.83</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>345</v>
+      </c>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="32" t="s">
+        <v>352</v>
+      </c>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+    </row>
+    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="31">
+        <v>9</v>
+      </c>
+      <c r="B10" s="32">
+        <v>63.38</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>331</v>
+      </c>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="32" t="s">
+        <v>352</v>
+      </c>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="32" t="s">
+        <v>355</v>
+      </c>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+    </row>
+    <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="31">
+        <v>10</v>
+      </c>
+      <c r="B11" s="32">
+        <v>63.48</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>356</v>
+      </c>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="32" t="s">
+        <v>357</v>
+      </c>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="32" t="s">
+        <v>358</v>
+      </c>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+    </row>
+    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="31">
+        <v>11</v>
+      </c>
+      <c r="B12" s="32">
+        <v>61.29</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>359</v>
+      </c>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="32" t="s">
+        <v>360</v>
+      </c>
+      <c r="I12" s="33"/>
+      <c r="J12" s="32" t="s">
+        <v>361</v>
+      </c>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+    </row>
+    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="31">
+        <v>12</v>
+      </c>
+      <c r="B13" s="32">
+        <v>60.57</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>362</v>
+      </c>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="32" t="s">
+        <v>363</v>
+      </c>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="32" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="31">
+        <v>13</v>
+      </c>
+      <c r="B14" s="32">
+        <v>64.53</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>331</v>
+      </c>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="32" t="s">
+        <v>365</v>
+      </c>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="32" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="31">
+        <v>14</v>
+      </c>
+      <c r="B15" s="32">
+        <v>83.79</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>362</v>
+      </c>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="32" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="31">
+        <v>15</v>
+      </c>
+      <c r="B16" s="32">
+        <v>55.64</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>356</v>
+      </c>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="32" t="s">
+        <v>357</v>
+      </c>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="32" t="s">
+        <v>367</v>
+      </c>
+      <c r="N16" s="33"/>
+    </row>
+    <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="31">
+        <v>16</v>
+      </c>
+      <c r="B17" s="32">
+        <v>65.5</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="N17" s="33"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="34" t="s">
+        <v>370</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18:F35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="4" max="4" width="25.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" customWidth="1"/>
+    <col min="11" max="11" width="10.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>338</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>339</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>340</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>341</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>342</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="J1" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="K1" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="M1" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="N1" s="35" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="35">
+        <v>1</v>
+      </c>
+      <c r="B2" s="35">
+        <v>81.73</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>297</v>
+      </c>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="35">
+        <v>2</v>
+      </c>
+      <c r="B3" s="35">
+        <v>67.91</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>345</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="35">
+        <v>3</v>
+      </c>
+      <c r="B4" s="35">
+        <v>79.650000000000006</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="35" t="s">
+        <v>346</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="35">
+        <v>4</v>
+      </c>
+      <c r="B5" s="35">
+        <v>64.790000000000006</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>347</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="35" t="s">
+        <v>348</v>
+      </c>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="35">
+        <v>5</v>
+      </c>
+      <c r="B6" s="35">
+        <v>81.37</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>349</v>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="35" t="s">
+        <v>350</v>
+      </c>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="35">
+        <v>6</v>
+      </c>
+      <c r="B7" s="35">
+        <v>60.93</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>351</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="35" t="s">
+        <v>352</v>
+      </c>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="35">
+        <v>7</v>
+      </c>
+      <c r="B8" s="35">
+        <v>65.459999999999994</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>353</v>
+      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="35" t="s">
+        <v>354</v>
+      </c>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="35">
+        <v>8</v>
+      </c>
+      <c r="B9" s="35">
+        <v>61.83</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>345</v>
+      </c>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="35" t="s">
+        <v>352</v>
+      </c>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="35">
+        <v>9</v>
+      </c>
+      <c r="B10" s="35">
+        <v>63.38</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>331</v>
+      </c>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="35" t="s">
+        <v>352</v>
+      </c>
+      <c r="I10" s="22"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="35" t="s">
+        <v>355</v>
+      </c>
+      <c r="L10" s="36"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="35">
+        <v>10</v>
+      </c>
+      <c r="B11" s="35">
+        <v>63.48</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>356</v>
+      </c>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="35" t="s">
+        <v>357</v>
+      </c>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="35" t="s">
+        <v>358</v>
+      </c>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="35">
+        <v>11</v>
+      </c>
+      <c r="B12" s="35">
+        <v>61.29</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>359</v>
+      </c>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="35" t="s">
+        <v>360</v>
+      </c>
+      <c r="I12" s="22"/>
+      <c r="J12" s="35" t="s">
+        <v>361</v>
+      </c>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="35">
+        <v>12</v>
+      </c>
+      <c r="B13" s="35">
+        <v>60.57</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>362</v>
+      </c>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="35" t="s">
+        <v>363</v>
+      </c>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="35" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="35">
+        <v>13</v>
+      </c>
+      <c r="B14" s="35">
+        <v>64.53</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>331</v>
+      </c>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="35" t="s">
+        <v>365</v>
+      </c>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="35" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="35">
+        <v>14</v>
+      </c>
+      <c r="B15" s="35">
+        <v>83.79</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>362</v>
+      </c>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="35" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="35">
+        <v>15</v>
+      </c>
+      <c r="B16" s="35">
+        <v>55.64</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>356</v>
+      </c>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="35" t="s">
+        <v>357</v>
+      </c>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="35" t="s">
+        <v>367</v>
+      </c>
+      <c r="N16" s="22"/>
+    </row>
+    <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="37">
+        <v>16</v>
+      </c>
+      <c r="B17" s="37">
+        <v>65.5</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>368</v>
+      </c>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="37" t="s">
+        <v>369</v>
+      </c>
+      <c r="N17" s="38"/>
+    </row>
+    <row r="18" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>371</v>
+      </c>
+      <c r="D18" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="35">
+        <v>1</v>
+      </c>
+      <c r="B19" s="35">
+        <v>81.73</v>
+      </c>
+      <c r="D19" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="35">
+        <v>2</v>
+      </c>
+      <c r="B20" s="35">
+        <v>67.91</v>
+      </c>
+      <c r="C20">
+        <f>B20-B19</f>
+        <v>-13.820000000000007</v>
+      </c>
+      <c r="D20" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="35">
+        <v>3</v>
+      </c>
+      <c r="B21" s="35">
+        <v>79.650000000000006</v>
+      </c>
+      <c r="C21">
+        <f>B21-$B$19</f>
+        <v>-2.0799999999999983</v>
+      </c>
+      <c r="D21" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="35">
+        <v>4</v>
+      </c>
+      <c r="B22" s="35">
+        <v>64.790000000000006</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ref="C22:C35" si="0">B22-$B$19</f>
+        <v>-16.939999999999998</v>
+      </c>
+      <c r="D22" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="35">
+        <v>5</v>
+      </c>
+      <c r="B23" s="35">
+        <v>81.37</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>-0.35999999999999943</v>
+      </c>
+      <c r="D23" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="35">
+        <v>6</v>
+      </c>
+      <c r="B24" s="35">
+        <v>60.93</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>-20.800000000000004</v>
+      </c>
+      <c r="D24" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="35">
+        <v>7</v>
+      </c>
+      <c r="B25" s="35">
+        <v>65.459999999999994</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>-16.27000000000001</v>
+      </c>
+      <c r="D25" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="35">
+        <v>8</v>
+      </c>
+      <c r="B26" s="35">
+        <v>61.83</v>
+      </c>
+      <c r="C26">
+        <f>B26-$B$19</f>
+        <v>-19.900000000000006</v>
+      </c>
+      <c r="D26" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="35">
+        <v>9</v>
+      </c>
+      <c r="B27" s="35">
+        <v>63.38</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>-18.350000000000001</v>
+      </c>
+      <c r="D27" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="35">
+        <v>10</v>
+      </c>
+      <c r="B28" s="35">
+        <v>62.92</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>-18.810000000000002</v>
+      </c>
+      <c r="D28" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="35">
+        <v>11</v>
+      </c>
+      <c r="B29" s="35">
+        <v>63.48</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>-18.250000000000007</v>
+      </c>
+      <c r="D29" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="35">
+        <v>12</v>
+      </c>
+      <c r="B30" s="35">
+        <v>61.29</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>-20.440000000000005</v>
+      </c>
+      <c r="D30" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" s="35">
+        <v>13</v>
+      </c>
+      <c r="B31" s="35">
+        <v>60.57</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>-21.160000000000004</v>
+      </c>
+      <c r="D31" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="35">
+        <v>14</v>
+      </c>
+      <c r="B32" s="35">
+        <v>64.53</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>-17.200000000000003</v>
+      </c>
+      <c r="D32" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="35">
+        <v>15</v>
+      </c>
+      <c r="B33" s="35">
+        <v>83.79</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>2.0600000000000023</v>
+      </c>
+      <c r="D33" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="35">
+        <v>16</v>
+      </c>
+      <c r="B34" s="35">
+        <v>55.64</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>-26.090000000000003</v>
+      </c>
+      <c r="D34" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="35">
+        <v>17</v>
+      </c>
+      <c r="B35" s="37">
+        <v>65.5</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>-16.230000000000004</v>
+      </c>
+      <c r="D35" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="11.109375" customWidth="1"/>
+    <col min="4" max="4" width="56" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>371</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
+        <v>15</v>
+      </c>
+      <c r="B2" s="10">
+        <v>83.79</v>
+      </c>
+      <c r="C2" s="10">
+        <v>2.0600000000000023</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10">
+        <v>81.73</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
+        <v>5</v>
+      </c>
+      <c r="B4" s="10">
+        <v>81.37</v>
+      </c>
+      <c r="C4" s="10">
+        <v>-0.35999999999999943</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10">
+        <v>79.650000000000006</v>
+      </c>
+      <c r="C5" s="10">
+        <v>-2.0799999999999983</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
+        <v>2</v>
+      </c>
+      <c r="B6" s="10">
+        <v>67.91</v>
+      </c>
+      <c r="C6" s="10">
+        <v>-13.820000000000007</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
+        <v>17</v>
+      </c>
+      <c r="B7" s="10">
+        <v>65.5</v>
+      </c>
+      <c r="C7" s="10">
+        <v>-16.230000000000004</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10">
+        <v>65.459999999999994</v>
+      </c>
+      <c r="C8" s="10">
+        <v>-16.27000000000001</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
+        <v>4</v>
+      </c>
+      <c r="B9" s="10">
+        <v>64.790000000000006</v>
+      </c>
+      <c r="C9" s="10">
+        <v>-16.939999999999998</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
+        <v>14</v>
+      </c>
+      <c r="B10" s="10">
+        <v>64.53</v>
+      </c>
+      <c r="C10" s="10">
+        <v>-17.200000000000003</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
+        <v>11</v>
+      </c>
+      <c r="B11" s="10">
+        <v>63.48</v>
+      </c>
+      <c r="C11" s="10">
+        <v>-18.250000000000007</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
+        <v>9</v>
+      </c>
+      <c r="B12" s="10">
+        <v>63.38</v>
+      </c>
+      <c r="C12" s="10">
+        <v>-18.350000000000001</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="10">
+        <v>10</v>
+      </c>
+      <c r="B13" s="10">
+        <v>62.92</v>
+      </c>
+      <c r="C13" s="10">
+        <v>-18.810000000000002</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="10">
+        <v>8</v>
+      </c>
+      <c r="B14" s="10">
+        <v>61.83</v>
+      </c>
+      <c r="C14" s="10">
+        <v>-19.900000000000006</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="10">
+        <v>12</v>
+      </c>
+      <c r="B15" s="10">
+        <v>61.29</v>
+      </c>
+      <c r="C15" s="10">
+        <v>-20.440000000000005</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="10">
+        <v>6</v>
+      </c>
+      <c r="B16" s="10">
+        <v>60.93</v>
+      </c>
+      <c r="C16" s="10">
+        <v>-20.800000000000004</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="10">
+        <v>13</v>
+      </c>
+      <c r="B17" s="10">
+        <v>60.57</v>
+      </c>
+      <c r="C17" s="10">
+        <v>-21.160000000000004</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="10">
+        <v>16</v>
+      </c>
+      <c r="B18" s="10">
+        <v>55.64</v>
+      </c>
+      <c r="C18" s="10">
+        <v>-26.090000000000003</v>
+      </c>
+      <c r="D18" s="41" t="s">
+        <v>387</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:D18">
+    <sortCondition descending="1" ref="C2:C18"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2059,20 +3819,20 @@
       <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="35.1796875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="30.54296875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.6328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -2107,7 +3867,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2145,7 +3905,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
@@ -2180,7 +3940,7 @@
         <v>84.55</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
@@ -2218,7 +3978,7 @@
         <v>81.96</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
@@ -2253,7 +4013,7 @@
         <v>81.2</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
@@ -2285,7 +4045,7 @@
         <v>82.03</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
@@ -2314,7 +4074,7 @@
         <v>80.47</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
@@ -2325,7 +4085,7 @@
         <v>0.97460000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
@@ -2334,7 +4094,7 @@
       </c>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>21</v>
       </c>
@@ -2343,12 +4103,12 @@
       </c>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
       <c r="C11" s="2"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -2356,7 +4116,7 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
@@ -2367,7 +4127,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>3</v>
       </c>
@@ -2378,7 +4138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>4</v>
       </c>
@@ -2389,7 +4149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>7</v>
       </c>
@@ -2400,7 +4160,7 @@
         <v>0.44629999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>8</v>
       </c>
@@ -2411,7 +4171,7 @@
         <v>1.8200000000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>6</v>
       </c>
@@ -2422,7 +4182,7 @@
         <v>0.26219999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
         <v>17</v>
       </c>
@@ -2431,7 +4191,7 @@
       </c>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
         <v>21</v>
       </c>
@@ -2440,12 +4200,12 @@
       </c>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B21" s="3"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
@@ -2453,7 +4213,7 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
         <v>1</v>
       </c>
@@ -2464,7 +4224,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
         <v>3</v>
       </c>
@@ -2475,7 +4235,7 @@
         <v>0.94220000000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
         <v>4</v>
       </c>
@@ -2486,7 +4246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
         <v>7</v>
       </c>
@@ -2497,7 +4257,7 @@
         <v>2.0799999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
         <v>12</v>
       </c>
@@ -2508,7 +4268,7 @@
         <v>2.69E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
         <v>8</v>
       </c>
@@ -2519,7 +4279,7 @@
         <v>2.3800000000000002E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
         <v>6</v>
       </c>
@@ -2530,7 +4290,7 @@
         <v>0.1394</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
         <v>17</v>
       </c>
@@ -2539,7 +4299,7 @@
       </c>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
         <v>21</v>
       </c>
@@ -2548,12 +4308,12 @@
       </c>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>18</v>
       </c>
@@ -2561,7 +4321,7 @@
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B34" s="3" t="s">
         <v>1</v>
       </c>
@@ -2572,7 +4332,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2583,7 +4343,7 @@
         <v>0.6915</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B36" s="3" t="s">
         <v>4</v>
       </c>
@@ -2594,7 +4354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B37" s="3" t="s">
         <v>7</v>
       </c>
@@ -2605,7 +4365,7 @@
         <v>3.3399999999999999E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B38" s="3" t="s">
         <v>12</v>
       </c>
@@ -2616,7 +4376,7 @@
         <v>4.2799999999999998E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B39" s="3" t="s">
         <v>8</v>
       </c>
@@ -2627,7 +4387,7 @@
         <v>4.0899999999999999E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
         <v>17</v>
       </c>
@@ -2636,7 +4396,7 @@
       </c>
       <c r="D40" s="3"/>
     </row>
-    <row r="41" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B41" s="3" t="s">
         <v>21</v>
       </c>
@@ -2645,12 +4405,12 @@
       </c>
       <c r="D41" s="3"/>
     </row>
-    <row r="42" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>19</v>
       </c>
@@ -2658,7 +4418,7 @@
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B44" s="3" t="s">
         <v>1</v>
       </c>
@@ -2669,7 +4429,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2680,7 +4440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B46" s="3" t="s">
         <v>4</v>
       </c>
@@ -2691,7 +4451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B47" s="3" t="s">
         <v>8</v>
       </c>
@@ -2702,7 +4462,7 @@
         <v>2.2100000000000002E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B48" s="3" t="s">
         <v>6</v>
       </c>
@@ -2713,7 +4473,7 @@
         <v>0.2676</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B49" s="3" t="s">
         <v>17</v>
       </c>
@@ -2722,7 +4482,7 @@
       </c>
       <c r="D49" s="3"/>
     </row>
-    <row r="50" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B50" s="3" t="s">
         <v>21</v>
       </c>
@@ -2731,12 +4491,12 @@
       </c>
       <c r="D50" s="3"/>
     </row>
-    <row r="51" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
     </row>
-    <row r="52" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>20</v>
       </c>
@@ -2744,7 +4504,7 @@
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
     </row>
-    <row r="53" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B53" s="3" t="s">
         <v>1</v>
       </c>
@@ -2755,7 +4515,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2766,7 +4526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B55" s="3" t="s">
         <v>4</v>
       </c>
@@ -2777,7 +4537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B56" s="3" t="s">
         <v>8</v>
       </c>
@@ -2788,7 +4548,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B57" s="3" t="s">
         <v>17</v>
       </c>
@@ -2797,7 +4557,7 @@
       </c>
       <c r="D57" s="3"/>
     </row>
-    <row r="58" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B58" s="3" t="s">
         <v>21</v>
       </c>
@@ -2819,20 +4579,20 @@
       <selection sqref="A1:K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
         <v>76</v>
@@ -2865,7 +4625,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2898,7 +4658,7 @@
         <v>49.76</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -2929,7 +4689,7 @@
         <v>47.17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -2962,7 +4722,7 @@
         <v>47.06</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -2991,7 +4751,7 @@
         <v>46.45</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -3024,7 +4784,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
@@ -3055,7 +4815,7 @@
         <v>84.55</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>46</v>
       </c>
@@ -3088,7 +4848,7 @@
         <v>81.96</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>47</v>
       </c>
@@ -3119,7 +4879,7 @@
         <v>81.2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -3148,7 +4908,7 @@
         <v>82.03</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
@@ -3189,22 +4949,22 @@
       <selection sqref="A1:K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.90625" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" customWidth="1"/>
-    <col min="5" max="5" width="12.6328125" customWidth="1"/>
-    <col min="6" max="6" width="11.26953125" customWidth="1"/>
-    <col min="7" max="7" width="13.81640625" customWidth="1"/>
-    <col min="8" max="8" width="11.90625" customWidth="1"/>
-    <col min="9" max="9" width="9.453125" customWidth="1"/>
-    <col min="10" max="10" width="4.81640625" customWidth="1"/>
-    <col min="11" max="11" width="6.7265625" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.88671875" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" customWidth="1"/>
+    <col min="10" max="10" width="4.88671875" customWidth="1"/>
+    <col min="11" max="11" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="13"/>
       <c r="B1" s="13" t="s">
         <v>89</v>
@@ -3237,7 +4997,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -3250,7 +5010,7 @@
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
@@ -3283,7 +5043,7 @@
         <v>49.76</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>9</v>
       </c>
@@ -3314,7 +5074,7 @@
         <v>47.17</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>11</v>
       </c>
@@ -3347,7 +5107,7 @@
         <v>47.06</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>10</v>
       </c>
@@ -3376,7 +5136,7 @@
         <v>46.45</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>14</v>
       </c>
@@ -3409,7 +5169,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>15</v>
       </c>
@@ -3440,7 +5200,7 @@
         <v>84.55</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>46</v>
       </c>
@@ -3473,7 +5233,7 @@
         <v>81.96</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>47</v>
       </c>
@@ -3504,7 +5264,7 @@
         <v>81.2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>19</v>
       </c>
@@ -3533,7 +5293,7 @@
         <v>82.03</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>20</v>
       </c>
@@ -3560,7 +5320,7 @@
         <v>80.47</v>
       </c>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
         <v>91</v>
       </c>
@@ -3579,19 +5339,19 @@
       <selection activeCell="B25" sqref="A1:B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.36328125" customWidth="1"/>
-    <col min="10" max="10" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -3599,7 +5359,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>80</v>
       </c>
@@ -3610,7 +5370,7 @@
         <v>-3.1602179999999999E-8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -3618,7 +5378,7 @@
         <v>0.75448789999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>81</v>
       </c>
@@ -3626,7 +5386,7 @@
         <v>114.1324</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>82</v>
       </c>
@@ -3634,7 +5394,7 @@
         <v>119.9953</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>83</v>
       </c>
@@ -3642,25 +5402,25 @@
         <v>-53.066200000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
@@ -3668,7 +5428,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>80</v>
       </c>
@@ -3679,7 +5439,7 @@
         <v>-3.4309010000000003E-8</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
@@ -3687,7 +5447,7 @@
         <v>0.62037410000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>81</v>
       </c>
@@ -3695,7 +5455,7 @@
         <v>130.20050000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>82</v>
       </c>
@@ -3703,7 +5463,7 @@
         <v>136.53460000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>83</v>
       </c>
@@ -3711,17 +5471,17 @@
         <v>-61.100259999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>3</v>
       </c>
@@ -3729,7 +5489,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>80</v>
       </c>
@@ -3737,7 +5497,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>17</v>
       </c>
@@ -3748,7 +5508,7 @@
         <v>-2.3578020000000001E-8</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>81</v>
       </c>
@@ -3756,7 +5516,7 @@
         <v>131.29929999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>82</v>
       </c>
@@ -3764,7 +5524,7 @@
         <v>137.5206</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>83</v>
       </c>
@@ -3786,14 +5546,14 @@
       <selection activeCell="A36" sqref="A36:B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="25" t="s">
@@ -3801,7 +5561,7 @@
       </c>
       <c r="D1" s="10"/>
     </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="19" t="s">
         <v>79</v>
@@ -3813,7 +5573,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
@@ -3827,7 +5587,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>80</v>
       </c>
@@ -3841,7 +5601,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>17</v>
       </c>
@@ -3855,13 +5615,13 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
     </row>
-    <row r="7" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10"/>
       <c r="B7" s="12"/>
       <c r="C7" s="25" t="s">
@@ -3869,7 +5629,7 @@
       </c>
       <c r="D7" s="12"/>
     </row>
-    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="19" t="s">
         <v>79</v>
@@ -3881,7 +5641,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>3</v>
       </c>
@@ -3895,7 +5655,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>80</v>
       </c>
@@ -3909,7 +5669,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>17</v>
       </c>
@@ -3923,13 +5683,13 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="18"/>
       <c r="B12" s="18"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
     </row>
-    <row r="13" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10"/>
       <c r="B13" s="12"/>
       <c r="C13" s="25" t="s">
@@ -3937,7 +5697,7 @@
       </c>
       <c r="D13" s="12"/>
     </row>
-    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="19" t="s">
         <v>79</v>
@@ -3949,7 +5709,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>3</v>
       </c>
@@ -3963,7 +5723,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>80</v>
       </c>
@@ -3977,7 +5737,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>17</v>
       </c>
@@ -3991,13 +5751,13 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="18"/>
       <c r="B18" s="12"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
     </row>
-    <row r="19" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10"/>
       <c r="B19" s="12"/>
       <c r="C19" s="25" t="s">
@@ -4005,7 +5765,7 @@
       </c>
       <c r="D19" s="12"/>
     </row>
-    <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="19" t="s">
         <v>79</v>
@@ -4017,7 +5777,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>3</v>
       </c>
@@ -4031,7 +5791,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>80</v>
       </c>
@@ -4045,7 +5805,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>17</v>
       </c>
@@ -4059,55 +5819,55 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="5"/>
     </row>
-    <row r="25" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="B32" s="5"/>
     </row>
-    <row r="33" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
       <c r="B34" s="2"/>
     </row>
-    <row r="35" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
       <c r="B35" s="2"/>
     </row>
-    <row r="36" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
       <c r="B36" s="2"/>
     </row>
@@ -4125,13 +5885,13 @@
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="13"/>
       <c r="B1" s="13" t="s">
         <v>89</v>
@@ -4155,7 +5915,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -4165,7 +5925,7 @@
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
@@ -4191,7 +5951,7 @@
         <v>1314.7249999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>9</v>
       </c>
@@ -4215,7 +5975,7 @@
         <v>1302.212</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>10</v>
       </c>
@@ -4237,7 +5997,7 @@
         <v>1290.4110000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>14</v>
       </c>
@@ -4263,7 +6023,7 @@
         <v>93.784390000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>15</v>
       </c>
@@ -4287,7 +6047,7 @@
         <v>76.300929999999994</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>19</v>
       </c>
@@ -4309,7 +6069,7 @@
         <v>67.461749999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>20</v>
       </c>
@@ -4331,7 +6091,7 @@
         <v>64.301199999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>99</v>
       </c>
@@ -4351,7 +6111,7 @@
         <v>56.57602</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="16"/>
@@ -4361,7 +6121,7 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="16"/>
@@ -4380,21 +6140,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="7" max="7" width="12.6328125" customWidth="1"/>
-    <col min="12" max="12" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" customWidth="1"/>
+    <col min="12" max="12" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>127</v>
       </c>
@@ -4450,7 +6210,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>20</v>
       </c>
@@ -4461,7 +6221,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>21</v>
       </c>
@@ -4472,7 +6232,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>22</v>
       </c>
@@ -4483,7 +6243,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>23</v>
       </c>
@@ -4494,7 +6254,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>24</v>
       </c>
@@ -4505,7 +6265,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>25</v>
       </c>
@@ -4516,7 +6276,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>26</v>
       </c>
@@ -4527,7 +6287,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>27</v>
       </c>
@@ -4538,7 +6298,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>28</v>
       </c>
@@ -4549,7 +6309,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>29</v>
       </c>
@@ -4560,7 +6320,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>30</v>
       </c>
@@ -4571,7 +6331,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>31</v>
       </c>
@@ -4582,7 +6342,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>32</v>
       </c>
@@ -4593,7 +6353,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>33</v>
       </c>
@@ -4604,7 +6364,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>34</v>
       </c>
@@ -4615,7 +6375,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="21">
         <v>35</v>
       </c>
@@ -4626,7 +6386,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>127</v>
       </c>
@@ -4682,7 +6442,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>40</v>
       </c>
@@ -4693,7 +6453,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>41</v>
       </c>
@@ -4707,7 +6467,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>42</v>
       </c>
@@ -4721,7 +6481,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>43</v>
       </c>
@@ -4735,7 +6495,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>44</v>
       </c>
@@ -4749,7 +6509,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>45</v>
       </c>
@@ -4763,7 +6523,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>46</v>
       </c>
@@ -4777,7 +6537,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>47</v>
       </c>
@@ -4791,7 +6551,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>48</v>
       </c>
@@ -4805,7 +6565,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>49</v>
       </c>
@@ -4819,7 +6579,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>50</v>
       </c>
@@ -4833,7 +6593,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>51</v>
       </c>
@@ -4847,7 +6607,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>52</v>
       </c>
@@ -4861,7 +6621,7 @@
         <v>8.3199999999999996E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>53</v>
       </c>
@@ -4875,7 +6635,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>54</v>
       </c>
@@ -4889,7 +6649,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>55</v>
       </c>
@@ -4903,7 +6663,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="35" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="23" t="s">
         <v>127</v>
       </c>
@@ -4962,7 +6722,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>60</v>
       </c>
@@ -4976,7 +6736,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>61</v>
       </c>
@@ -4993,7 +6753,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>62</v>
       </c>
@@ -5010,7 +6770,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>63</v>
       </c>
@@ -5027,7 +6787,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>64</v>
       </c>
@@ -5044,7 +6804,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>65</v>
       </c>
@@ -5061,7 +6821,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>66</v>
       </c>
@@ -5078,7 +6838,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>67</v>
       </c>
@@ -5095,7 +6855,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>68</v>
       </c>
@@ -5112,7 +6872,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>69</v>
       </c>
@@ -5129,7 +6889,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>70</v>
       </c>
@@ -5146,7 +6906,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>71</v>
       </c>
@@ -5163,7 +6923,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>72</v>
       </c>
@@ -5180,7 +6940,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>73</v>
       </c>
@@ -5197,7 +6957,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>74</v>
       </c>
@@ -5214,7 +6974,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>75</v>
       </c>
@@ -5231,7 +6991,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="52" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="23" t="s">
         <v>127</v>
       </c>
@@ -5290,7 +7050,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" s="24">
         <v>80</v>
       </c>
@@ -5304,7 +7064,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" s="24">
         <v>81</v>
       </c>
@@ -5321,7 +7081,7 @@
         <v>1.14E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" s="24">
         <v>82</v>
       </c>
@@ -5338,7 +7098,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" s="24">
         <v>83</v>
       </c>
@@ -5355,7 +7115,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" s="24">
         <v>84</v>
       </c>
@@ -5372,7 +7132,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58" s="24">
         <v>85</v>
       </c>
@@ -5389,7 +7149,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" s="24">
         <v>86</v>
       </c>
@@ -5406,7 +7166,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60" s="24">
         <v>87</v>
       </c>
@@ -5423,7 +7183,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61" s="24">
         <v>88</v>
       </c>
@@ -5440,7 +7200,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62" s="24">
         <v>89</v>
       </c>
@@ -5457,7 +7217,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A63" s="24">
         <v>90</v>
       </c>
@@ -5474,7 +7234,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64" s="24">
         <v>91</v>
       </c>
@@ -5491,7 +7251,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A65" s="24">
         <v>92</v>
       </c>
@@ -5508,7 +7268,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A66" s="24">
         <v>93</v>
       </c>
@@ -5525,7 +7285,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A67" s="24">
         <v>94</v>
       </c>
@@ -5542,7 +7302,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A68" s="24">
         <v>95</v>
       </c>
@@ -5569,19 +7329,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="7" width="9" customWidth="1"/>
-    <col min="12" max="12" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.1796875" customWidth="1"/>
-    <col min="24" max="24" width="11.453125" customWidth="1"/>
+    <col min="12" max="12" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.109375" customWidth="1"/>
+    <col min="24" max="24" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>127</v>
       </c>
@@ -5655,7 +7415,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5672,7 +7432,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>316</v>
       </c>
@@ -5689,7 +7449,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -5709,7 +7469,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -5729,7 +7489,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -5749,7 +7509,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>310</v>
       </c>
@@ -5769,7 +7529,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>313</v>
       </c>
@@ -5789,7 +7549,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6</v>
       </c>
@@ -5812,7 +7572,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>7</v>
       </c>
@@ -5826,7 +7586,7 @@
         <v>63.475000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>8</v>
       </c>
@@ -5849,7 +7609,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>9</v>
       </c>
@@ -5872,7 +7632,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>329</v>
       </c>
@@ -5895,7 +7655,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10</v>
       </c>

--- a/output/ModelOutput.xlsx
+++ b/output/ModelOutput.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7188" firstSheet="6" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7188" firstSheet="12" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="RawRecruits" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,10 @@
     <sheet name="GAM_FROM PAPER" sheetId="10" r:id="rId10"/>
     <sheet name="GAM_FINAL" sheetId="11" r:id="rId11"/>
     <sheet name="GAMforPaper" sheetId="13" r:id="rId12"/>
+    <sheet name="AICc_Era1_GAM_output" sheetId="14" r:id="rId13"/>
+    <sheet name="AICc_Era1_GAM_forPaper" sheetId="15" r:id="rId14"/>
+    <sheet name="AICc_Era2_GAM_output" sheetId="16" r:id="rId15"/>
+    <sheet name="AICc_Era2_GAM_forPaper" sheetId="17" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="426">
   <si>
     <t>Model 1</t>
   </si>
@@ -1232,6 +1236,111 @@
   </si>
   <si>
     <t>Model variables</t>
+  </si>
+  <si>
+    <t>CB females (shortened period)</t>
+  </si>
+  <si>
+    <t>CB females, ovig opilio females</t>
+  </si>
+  <si>
+    <t>CB females, Pacific cod 3 yr rolling average</t>
+  </si>
+  <si>
+    <t>CB females, flathead sole TBM</t>
+  </si>
+  <si>
+    <t>CB females, flathead sole TBM RA</t>
+  </si>
+  <si>
+    <t>CB females, flathead sole TBM (shortened period)</t>
+  </si>
+  <si>
+    <t>CB females, flathead sole TBM, NE wind</t>
+  </si>
+  <si>
+    <t>CB females, flathead sole TBM, SE wind</t>
+  </si>
+  <si>
+    <t>CB females, flathead sole TBM, AO RA</t>
+  </si>
+  <si>
+    <t>CB females, flathead sole TBM, NBT RA</t>
+  </si>
+  <si>
+    <t>CB females, flathead sole TBM, May-July SST</t>
+  </si>
+  <si>
+    <t>CB females, flathead sole TBM (linear), May-July SST</t>
+  </si>
+  <si>
+    <t>CB females, flathead sole TBM, PDO RA</t>
+  </si>
+  <si>
+    <t>CB females + ovig CO females</t>
+  </si>
+  <si>
+    <t>CB females + ovig CO females + FHS TBM</t>
+  </si>
+  <si>
+    <t>CB females + ovig CO females + FHS TBM + Pacific cod RA</t>
+  </si>
+  <si>
+    <t>CB females + ovig CO females + Pacific cod RA</t>
+  </si>
+  <si>
+    <t>CB females + Pacific cod RA</t>
+  </si>
+  <si>
+    <t>CB females + FHS TBM</t>
+  </si>
+  <si>
+    <t>CB females + FHS RA</t>
+  </si>
+  <si>
+    <t>CB females + FHS TBM + NE wind</t>
+  </si>
+  <si>
+    <t>CB females + FHS TBM + SE wind</t>
+  </si>
+  <si>
+    <t>CB females + FHS TBM + AO RA3</t>
+  </si>
+  <si>
+    <t>CB females + FHS TBM + NBT RA3</t>
+  </si>
+  <si>
+    <t>CB females + FHS TBM + SST May-July</t>
+  </si>
+  <si>
+    <t>CB females + FHS TBM (linear) + SST May-July</t>
+  </si>
+  <si>
+    <t>CB females + FHS TBM + PDO RA3</t>
+  </si>
+  <si>
+    <t>CB females + Pacific cod RA3</t>
+  </si>
+  <si>
+    <t>CB females + Pacific cod RA3 + NE wind</t>
+  </si>
+  <si>
+    <t>CB females + Pacific cod RA3 + SE wind</t>
+  </si>
+  <si>
+    <t>CB females + Pacific cod RA3 + AO RA3</t>
+  </si>
+  <si>
+    <t>CB females + Pacific cod RA3 NBT RA3</t>
+  </si>
+  <si>
+    <t>CB females + Pacific cod RA3 + SST May-July</t>
+  </si>
+  <si>
+    <t>CB females + Pacific cod RA3 (linear) + SST May-July</t>
+  </si>
+  <si>
+    <t>CB females + Pacific cod RA3 + PDO RA3</t>
   </si>
 </sst>
 </file>
@@ -2816,7 +2925,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18:F35"/>
+      <selection pane="bottomLeft" activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3541,8 +3650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3806,6 +3915,1264 @@
   </sheetData>
   <sortState ref="A2:D18">
     <sortCondition descending="1" ref="C2:C18"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="11.109375" customWidth="1"/>
+    <col min="4" max="4" width="56" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>371</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>44.391599999999997</v>
+      </c>
+      <c r="C2" s="10">
+        <v>0</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10">
+        <v>29.846129999999999</v>
+      </c>
+      <c r="C3" s="10">
+        <f>B3-$B$2</f>
+        <v>-14.545469999999998</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>40.326700000000002</v>
+      </c>
+      <c r="C4" s="10">
+        <f t="shared" ref="C4:C15" si="0">B4-$B$2</f>
+        <v>-4.0648999999999944</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10">
+        <v>48.700809999999997</v>
+      </c>
+      <c r="C5" s="10">
+        <f t="shared" si="0"/>
+        <v>4.3092100000000002</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10">
+        <v>30.695979999999999</v>
+      </c>
+      <c r="C6" s="10">
+        <f t="shared" si="0"/>
+        <v>-13.695619999999998</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10">
+        <v>35.441969999999998</v>
+      </c>
+      <c r="C7" s="10">
+        <f t="shared" si="0"/>
+        <v>-8.9496299999999991</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10">
+        <v>28.84667</v>
+      </c>
+      <c r="C8" s="10">
+        <f t="shared" si="0"/>
+        <v>-15.544929999999997</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10">
+        <v>35.904490000000003</v>
+      </c>
+      <c r="C9" s="10">
+        <f t="shared" si="0"/>
+        <v>-8.4871099999999942</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10">
+        <v>39.576880000000003</v>
+      </c>
+      <c r="C10" s="10">
+        <f t="shared" si="0"/>
+        <v>-4.8147199999999941</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10">
+        <v>37.014949999999999</v>
+      </c>
+      <c r="C11" s="10">
+        <f t="shared" si="0"/>
+        <v>-7.3766499999999979</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10">
+        <v>35.968029999999999</v>
+      </c>
+      <c r="C12" s="10">
+        <f t="shared" si="0"/>
+        <v>-8.423569999999998</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="10">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10">
+        <v>36.621989999999997</v>
+      </c>
+      <c r="C13" s="10">
+        <f t="shared" si="0"/>
+        <v>-7.7696100000000001</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="10">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10">
+        <v>36.621989999999997</v>
+      </c>
+      <c r="C14" s="10">
+        <f t="shared" si="0"/>
+        <v>-7.7696100000000001</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="10">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10">
+        <v>39.710839999999997</v>
+      </c>
+      <c r="C15" s="10">
+        <f t="shared" si="0"/>
+        <v>-4.6807599999999994</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="41"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="41"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="41"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>28.84667</v>
+      </c>
+      <c r="C2">
+        <v>-15.544929999999997</v>
+      </c>
+      <c r="D2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>29.846129999999999</v>
+      </c>
+      <c r="C3">
+        <v>-14.545469999999998</v>
+      </c>
+      <c r="D3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>30.695979999999999</v>
+      </c>
+      <c r="C4">
+        <v>-13.695619999999998</v>
+      </c>
+      <c r="D4" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>35.441969999999998</v>
+      </c>
+      <c r="C5">
+        <v>-8.9496299999999991</v>
+      </c>
+      <c r="D5" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>35.904490000000003</v>
+      </c>
+      <c r="C6">
+        <v>-8.4871099999999942</v>
+      </c>
+      <c r="D6" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>35.968029999999999</v>
+      </c>
+      <c r="C7">
+        <v>-8.423569999999998</v>
+      </c>
+      <c r="D7" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>36.621989999999997</v>
+      </c>
+      <c r="C8">
+        <v>-7.7696100000000001</v>
+      </c>
+      <c r="D8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>36.621989999999997</v>
+      </c>
+      <c r="C9">
+        <v>-7.7696100000000001</v>
+      </c>
+      <c r="D9" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>37.014949999999999</v>
+      </c>
+      <c r="C10">
+        <v>-7.3766499999999979</v>
+      </c>
+      <c r="D10" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>39.576880000000003</v>
+      </c>
+      <c r="C11">
+        <v>-4.8147199999999941</v>
+      </c>
+      <c r="D11" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>39.710839999999997</v>
+      </c>
+      <c r="C12">
+        <v>-4.6807599999999994</v>
+      </c>
+      <c r="D12" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>40.326700000000002</v>
+      </c>
+      <c r="C13">
+        <v>-4.0648999999999944</v>
+      </c>
+      <c r="D13" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>44.391599999999997</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>48.700809999999997</v>
+      </c>
+      <c r="C15">
+        <v>4.3092100000000002</v>
+      </c>
+      <c r="D15" t="s">
+        <v>393</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:D15">
+    <sortCondition ref="C2:C15"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView zoomScale="99" workbookViewId="0">
+      <selection sqref="A1:D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>45.301769999999998</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>41.458480000000002</v>
+      </c>
+      <c r="C3">
+        <f>B3-$B$2</f>
+        <v>-3.8432899999999961</v>
+      </c>
+      <c r="D3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>36.760669999999998</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C25" si="0">B4-$B$2</f>
+        <v>-8.5411000000000001</v>
+      </c>
+      <c r="D4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>37.646970000000003</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>-7.6547999999999945</v>
+      </c>
+      <c r="D5" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>35.225749999999998</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>-10.07602</v>
+      </c>
+      <c r="D6" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>33.782389999999999</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>-11.519379999999998</v>
+      </c>
+      <c r="D7" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>44.943750000000001</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>-0.35801999999999623</v>
+      </c>
+      <c r="D8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>47.688540000000003</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>2.3867700000000056</v>
+      </c>
+      <c r="D9" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>44.943750000000001</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>-0.35801999999999623</v>
+      </c>
+      <c r="D10" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>48.093980000000002</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>2.7922100000000043</v>
+      </c>
+      <c r="D11" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>50.391179999999999</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>5.0894100000000009</v>
+      </c>
+      <c r="D12" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>29.597300000000001</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>-15.704469999999997</v>
+      </c>
+      <c r="D13" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>36.159930000000003</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>-9.1418399999999949</v>
+      </c>
+      <c r="D14" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>43.677590000000002</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>-1.6241799999999955</v>
+      </c>
+      <c r="D15" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>45.916969999999999</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>0.61520000000000152</v>
+      </c>
+      <c r="D16" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>35.814720000000001</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>-9.4870499999999964</v>
+      </c>
+      <c r="D17" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>33.782389999999999</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>-11.519379999999998</v>
+      </c>
+      <c r="D18" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>37.88617</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>-7.4155999999999977</v>
+      </c>
+      <c r="D19" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>40.173389999999998</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>-5.1283799999999999</v>
+      </c>
+      <c r="D20" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>32.533790000000003</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>-12.767979999999994</v>
+      </c>
+      <c r="D21" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>41.252009999999999</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>-4.0497599999999991</v>
+      </c>
+      <c r="D22" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>38.094299999999997</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>-7.2074700000000007</v>
+      </c>
+      <c r="D23" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>52.453769999999999</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>7.152000000000001</v>
+      </c>
+      <c r="D24" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>32.892420000000001</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>-12.409349999999996</v>
+      </c>
+      <c r="D25" t="s">
+        <v>425</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>29.597300000000001</v>
+      </c>
+      <c r="C2">
+        <v>-15.704469999999997</v>
+      </c>
+      <c r="D2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>32.533790000000003</v>
+      </c>
+      <c r="C3">
+        <v>-12.767979999999994</v>
+      </c>
+      <c r="D3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>24</v>
+      </c>
+      <c r="B4">
+        <v>32.892420000000001</v>
+      </c>
+      <c r="C4">
+        <v>-12.409349999999996</v>
+      </c>
+      <c r="D4" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>33.782389999999999</v>
+      </c>
+      <c r="C5">
+        <v>-11.519379999999998</v>
+      </c>
+      <c r="D5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>33.782389999999999</v>
+      </c>
+      <c r="C6">
+        <v>-11.519379999999998</v>
+      </c>
+      <c r="D6" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>35.225749999999998</v>
+      </c>
+      <c r="C7">
+        <v>-10.07602</v>
+      </c>
+      <c r="D7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>35.814720000000001</v>
+      </c>
+      <c r="C8">
+        <v>-9.4870499999999964</v>
+      </c>
+      <c r="D8" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>36.159930000000003</v>
+      </c>
+      <c r="C9">
+        <v>-9.1418399999999949</v>
+      </c>
+      <c r="D9" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>36.760669999999998</v>
+      </c>
+      <c r="C10">
+        <v>-8.5411000000000001</v>
+      </c>
+      <c r="D10" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>37.646970000000003</v>
+      </c>
+      <c r="C11">
+        <v>-7.6547999999999945</v>
+      </c>
+      <c r="D11" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>37.88617</v>
+      </c>
+      <c r="C12">
+        <v>-7.4155999999999977</v>
+      </c>
+      <c r="D12" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>38.094299999999997</v>
+      </c>
+      <c r="C13">
+        <v>-7.2074700000000007</v>
+      </c>
+      <c r="D13" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>40.173389999999998</v>
+      </c>
+      <c r="C14">
+        <v>-5.1283799999999999</v>
+      </c>
+      <c r="D14" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>21</v>
+      </c>
+      <c r="B15">
+        <v>41.252009999999999</v>
+      </c>
+      <c r="C15">
+        <v>-4.0497599999999991</v>
+      </c>
+      <c r="D15" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>41.458480000000002</v>
+      </c>
+      <c r="C16">
+        <v>-3.8432899999999961</v>
+      </c>
+      <c r="D16" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>43.677590000000002</v>
+      </c>
+      <c r="C17">
+        <v>-1.6241799999999955</v>
+      </c>
+      <c r="D17" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>44.943750000000001</v>
+      </c>
+      <c r="C18">
+        <v>-0.35801999999999623</v>
+      </c>
+      <c r="D18" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>44.943750000000001</v>
+      </c>
+      <c r="C19">
+        <v>-0.35801999999999623</v>
+      </c>
+      <c r="D19" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>45.301769999999998</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>15</v>
+      </c>
+      <c r="B21">
+        <v>45.916969999999999</v>
+      </c>
+      <c r="C21">
+        <v>0.61520000000000152</v>
+      </c>
+      <c r="D21" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <v>47.688540000000003</v>
+      </c>
+      <c r="C22">
+        <v>2.3867700000000056</v>
+      </c>
+      <c r="D22" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>10</v>
+      </c>
+      <c r="B23">
+        <v>48.093980000000002</v>
+      </c>
+      <c r="C23">
+        <v>2.7922100000000043</v>
+      </c>
+      <c r="D23" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>11</v>
+      </c>
+      <c r="B24">
+        <v>50.391179999999999</v>
+      </c>
+      <c r="C24">
+        <v>5.0894100000000009</v>
+      </c>
+      <c r="D24" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>52.453769999999999</v>
+      </c>
+      <c r="C25">
+        <v>7.152000000000001</v>
+      </c>
+      <c r="D25" t="s">
+        <v>424</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:D25">
+    <sortCondition ref="C2:C25"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/output/ModelOutput.xlsx
+++ b/output/ModelOutput.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7188" firstSheet="12" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7188" firstSheet="13" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="RawRecruits" sheetId="1" r:id="rId1"/>
@@ -4418,7 +4418,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView zoomScale="99" workbookViewId="0">
-      <selection sqref="A1:D25"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4810,7 +4810,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D25"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/output/ModelOutput.xlsx
+++ b/output/ModelOutput.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7188" firstSheet="13" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7188" firstSheet="10" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="RawRecruits" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="431">
   <si>
     <t>Model 1</t>
   </si>
@@ -1277,70 +1277,85 @@
     <t>CB females, flathead sole TBM, PDO RA</t>
   </si>
   <si>
-    <t>CB females + ovig CO females</t>
-  </si>
-  <si>
-    <t>CB females + ovig CO females + FHS TBM</t>
-  </si>
-  <si>
-    <t>CB females + ovig CO females + FHS TBM + Pacific cod RA</t>
-  </si>
-  <si>
-    <t>CB females + ovig CO females + Pacific cod RA</t>
-  </si>
-  <si>
-    <t>CB females + Pacific cod RA</t>
-  </si>
-  <si>
-    <t>CB females + FHS TBM</t>
-  </si>
-  <si>
-    <t>CB females + FHS RA</t>
-  </si>
-  <si>
-    <t>CB females + FHS TBM + NE wind</t>
-  </si>
-  <si>
-    <t>CB females + FHS TBM + SE wind</t>
-  </si>
-  <si>
-    <t>CB females + FHS TBM + AO RA3</t>
-  </si>
-  <si>
-    <t>CB females + FHS TBM + NBT RA3</t>
-  </si>
-  <si>
-    <t>CB females + FHS TBM + SST May-July</t>
-  </si>
-  <si>
-    <t>CB females + FHS TBM (linear) + SST May-July</t>
-  </si>
-  <si>
-    <t>CB females + FHS TBM + PDO RA3</t>
-  </si>
-  <si>
-    <t>CB females + Pacific cod RA3</t>
-  </si>
-  <si>
-    <t>CB females + Pacific cod RA3 + NE wind</t>
-  </si>
-  <si>
-    <t>CB females + Pacific cod RA3 + SE wind</t>
-  </si>
-  <si>
-    <t>CB females + Pacific cod RA3 + AO RA3</t>
-  </si>
-  <si>
-    <t>CB females + Pacific cod RA3 NBT RA3</t>
-  </si>
-  <si>
-    <t>CB females + Pacific cod RA3 + SST May-July</t>
-  </si>
-  <si>
-    <t>CB females + Pacific cod RA3 (linear) + SST May-July</t>
-  </si>
-  <si>
-    <t>CB females + Pacific cod RA3 + PDO RA3</t>
+    <t>CB females, flathead sole TBM 2 yr rolling average</t>
+  </si>
+  <si>
+    <t>CB females, flathead sole TBM, NBT 3 yr rolling average</t>
+  </si>
+  <si>
+    <t>CB females, flathead sole TBM, AO 3 yr rolling average</t>
+  </si>
+  <si>
+    <t>CB females, flathead sole TBM, PDO 3 yr rolling average</t>
+  </si>
+  <si>
+    <t>CB females, ovig CO females</t>
+  </si>
+  <si>
+    <t>CB females, ovig CO females, FHS TBM</t>
+  </si>
+  <si>
+    <t>CB females, ovig CO females, FHS TBM, Pacific cod 3 yr rolling average</t>
+  </si>
+  <si>
+    <t>CB females, ovig CO females, Pacific cod 3 yr rolling average</t>
+  </si>
+  <si>
+    <t>CB females, Pacific cod  3 yr rolling average</t>
+  </si>
+  <si>
+    <t>CB females, FHS TBM</t>
+  </si>
+  <si>
+    <t>CB females, FHS TBM 2 yr rolling average</t>
+  </si>
+  <si>
+    <t>CB females, FHS TBM, NE wind</t>
+  </si>
+  <si>
+    <t>CB females, FHS TBM, SE wind</t>
+  </si>
+  <si>
+    <t>CB females, FHS TBM, AO 3 yr rolling average</t>
+  </si>
+  <si>
+    <t>CB females, FHS TBM, NBT 3 yr rolling average</t>
+  </si>
+  <si>
+    <t>CB females, FHS TBM, SST May-July</t>
+  </si>
+  <si>
+    <t>CB females, FHS TBM (linear), SST May-July</t>
+  </si>
+  <si>
+    <t>CB females, FHS TBM, PDO 3 yr rolling average</t>
+  </si>
+  <si>
+    <t>CB females, Pacific cod 3 yr rolling average, NE wind</t>
+  </si>
+  <si>
+    <t>CB females, Pacific cod 3 yr rolling average, SE wind</t>
+  </si>
+  <si>
+    <t>CB females, Pacific cod 3 yr rolling average, AO 3 yr rolling average</t>
+  </si>
+  <si>
+    <t>CB females, Pacific cod 3 yr rolling average, NBT 3 yr rolling average</t>
+  </si>
+  <si>
+    <t>CB females, Pacific cod 3 yr rolling average, SST May-July</t>
+  </si>
+  <si>
+    <t>CB females, Pacific cod 3 yr rolling average (linear), SST May-July</t>
+  </si>
+  <si>
+    <t>CB females, Pacific cod 3 yr rolling average, PDO 3 yr rolling average</t>
+  </si>
+  <si>
+    <t>CB females, AO 3 yr rolling average</t>
+  </si>
+  <si>
+    <t>CB females, , AO 3 yr rolling average</t>
   </si>
 </sst>
 </file>
@@ -3650,8 +3665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3676,114 +3691,114 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="10">
-        <v>83.79</v>
+        <v>55.64</v>
       </c>
       <c r="C2" s="10">
-        <v>2.0600000000000023</v>
+        <v>-26.090000000000003</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B3" s="10">
-        <v>81.73</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>389</v>
+        <v>60.57</v>
+      </c>
+      <c r="C3" s="10">
+        <v>-21.160000000000004</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>338</v>
+        <v>384</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="10">
-        <v>81.37</v>
+        <v>60.93</v>
       </c>
       <c r="C4" s="10">
-        <v>-0.35999999999999943</v>
+        <v>-20.800000000000004</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B5" s="10">
-        <v>79.650000000000006</v>
+        <v>61.29</v>
       </c>
       <c r="C5" s="10">
-        <v>-2.0799999999999983</v>
+        <v>-20.440000000000005</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B6" s="10">
-        <v>67.91</v>
+        <v>61.83</v>
       </c>
       <c r="C6" s="10">
-        <v>-13.820000000000007</v>
+        <v>-19.900000000000006</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B7" s="10">
-        <v>65.5</v>
+        <v>62.92</v>
       </c>
       <c r="C7" s="10">
-        <v>-16.230000000000004</v>
+        <v>-18.810000000000002</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8" s="10">
-        <v>65.459999999999994</v>
+        <v>63.38</v>
       </c>
       <c r="C8" s="10">
-        <v>-16.27000000000001</v>
+        <v>-18.350000000000001</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B9" s="10">
-        <v>64.790000000000006</v>
+        <v>63.48</v>
       </c>
       <c r="C9" s="10">
-        <v>-16.939999999999998</v>
+        <v>-18.250000000000007</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -3802,119 +3817,119 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B11" s="10">
-        <v>63.48</v>
+        <v>64.790000000000006</v>
       </c>
       <c r="C11" s="10">
-        <v>-18.250000000000007</v>
+        <v>-16.939999999999998</v>
       </c>
       <c r="D11" s="41" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B12" s="10">
-        <v>63.38</v>
+        <v>65.459999999999994</v>
       </c>
       <c r="C12" s="10">
-        <v>-18.350000000000001</v>
+        <v>-16.27000000000001</v>
       </c>
       <c r="D12" s="41" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B13" s="10">
-        <v>62.92</v>
+        <v>65.5</v>
       </c>
       <c r="C13" s="10">
-        <v>-18.810000000000002</v>
+        <v>-16.230000000000004</v>
       </c>
       <c r="D13" s="41" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B14" s="10">
-        <v>61.83</v>
+        <v>67.91</v>
       </c>
       <c r="C14" s="10">
-        <v>-19.900000000000006</v>
+        <v>-13.820000000000007</v>
       </c>
       <c r="D14" s="41" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B15" s="10">
-        <v>61.29</v>
+        <v>79.650000000000006</v>
       </c>
       <c r="C15" s="10">
-        <v>-20.440000000000005</v>
+        <v>-2.0799999999999983</v>
       </c>
       <c r="D15" s="41" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" s="10">
-        <v>60.93</v>
+        <v>81.37</v>
       </c>
       <c r="C16" s="10">
-        <v>-20.800000000000004</v>
+        <v>-0.35999999999999943</v>
       </c>
       <c r="D16" s="41" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B17" s="10">
-        <v>60.57</v>
-      </c>
-      <c r="C17" s="10">
-        <v>-21.160000000000004</v>
+        <v>81.73</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>389</v>
       </c>
       <c r="D17" s="41" t="s">
-        <v>384</v>
+        <v>338</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="10">
-        <v>55.64</v>
+        <v>83.79</v>
       </c>
       <c r="C18" s="10">
-        <v>-26.090000000000003</v>
+        <v>2.0600000000000023</v>
       </c>
       <c r="D18" s="41" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:D18">
-    <sortCondition descending="1" ref="C2:C18"/>
+    <sortCondition ref="C2:C18"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4185,7 +4200,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4262,7 +4277,7 @@
         <v>-8.9496299999999991</v>
       </c>
       <c r="D5" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -4290,7 +4305,7 @@
         <v>-8.423569999999998</v>
       </c>
       <c r="D7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -4332,7 +4347,7 @@
         <v>-7.3766499999999979</v>
       </c>
       <c r="D10" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -4360,7 +4375,7 @@
         <v>-4.6807599999999994</v>
       </c>
       <c r="D12" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -4415,16 +4430,16 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView zoomScale="99" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection sqref="A1:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -4467,7 +4482,7 @@
         <v>-3.8432899999999961</v>
       </c>
       <c r="D3" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -4482,7 +4497,7 @@
         <v>-8.5411000000000001</v>
       </c>
       <c r="D4" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -4497,7 +4512,7 @@
         <v>-7.6547999999999945</v>
       </c>
       <c r="D5" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -4512,7 +4527,7 @@
         <v>-10.07602</v>
       </c>
       <c r="D6" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -4527,7 +4542,7 @@
         <v>-11.519379999999998</v>
       </c>
       <c r="D7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -4542,7 +4557,7 @@
         <v>-0.35801999999999623</v>
       </c>
       <c r="D8" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -4557,7 +4572,7 @@
         <v>2.3867700000000056</v>
       </c>
       <c r="D9" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -4572,7 +4587,7 @@
         <v>-0.35801999999999623</v>
       </c>
       <c r="D10" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -4587,7 +4602,7 @@
         <v>2.7922100000000043</v>
       </c>
       <c r="D11" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -4602,7 +4617,7 @@
         <v>5.0894100000000009</v>
       </c>
       <c r="D12" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -4617,7 +4632,7 @@
         <v>-15.704469999999997</v>
       </c>
       <c r="D13" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -4632,7 +4647,7 @@
         <v>-9.1418399999999949</v>
       </c>
       <c r="D14" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -4647,7 +4662,7 @@
         <v>-1.6241799999999955</v>
       </c>
       <c r="D15" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -4662,7 +4677,7 @@
         <v>0.61520000000000152</v>
       </c>
       <c r="D16" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -4677,7 +4692,7 @@
         <v>-9.4870499999999964</v>
       </c>
       <c r="D17" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -4692,7 +4707,7 @@
         <v>-11.519379999999998</v>
       </c>
       <c r="D18" t="s">
-        <v>418</v>
+        <v>393</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -4707,7 +4722,7 @@
         <v>-7.4155999999999977</v>
       </c>
       <c r="D19" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -4722,7 +4737,7 @@
         <v>-5.1283799999999999</v>
       </c>
       <c r="D20" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -4737,7 +4752,7 @@
         <v>-12.767979999999994</v>
       </c>
       <c r="D21" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -4752,7 +4767,7 @@
         <v>-4.0497599999999991</v>
       </c>
       <c r="D22" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -4767,7 +4782,7 @@
         <v>-7.2074700000000007</v>
       </c>
       <c r="D23" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -4782,7 +4797,7 @@
         <v>7.152000000000001</v>
       </c>
       <c r="D24" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -4797,7 +4812,22 @@
         <v>-12.409349999999996</v>
       </c>
       <c r="D25" t="s">
-        <v>425</v>
+        <v>428</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>29.892410000000002</v>
+      </c>
+      <c r="C26">
+        <f>B26-B2</f>
+        <v>-15.409359999999996</v>
+      </c>
+      <c r="D26" t="s">
+        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -4807,17 +4837,17 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -4845,54 +4875,54 @@
         <v>-15.704469999999997</v>
       </c>
       <c r="D2" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B3">
-        <v>32.533790000000003</v>
+        <v>29.892410000000002</v>
       </c>
       <c r="C3">
-        <v>-12.767979999999994</v>
+        <v>-15.409359999999996</v>
       </c>
       <c r="D3" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B4">
-        <v>32.892420000000001</v>
+        <v>32.533790000000003</v>
       </c>
       <c r="C4">
-        <v>-12.409349999999996</v>
+        <v>-12.767979999999994</v>
       </c>
       <c r="D4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B5">
-        <v>33.782389999999999</v>
+        <v>32.892420000000001</v>
       </c>
       <c r="C5">
-        <v>-11.519379999999998</v>
+        <v>-12.409349999999996</v>
       </c>
       <c r="D5" t="s">
-        <v>408</v>
+        <v>428</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>33.782389999999999</v>
@@ -4901,180 +4931,180 @@
         <v>-11.519379999999998</v>
       </c>
       <c r="D6" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>35.225749999999998</v>
+        <v>33.782389999999999</v>
       </c>
       <c r="C7">
-        <v>-10.07602</v>
+        <v>-11.519379999999998</v>
       </c>
       <c r="D7" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>35.814720000000001</v>
+        <v>35.225749999999998</v>
       </c>
       <c r="C8">
-        <v>-9.4870499999999964</v>
+        <v>-10.07602</v>
       </c>
       <c r="D8" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>36.159930000000003</v>
+        <v>35.814720000000001</v>
       </c>
       <c r="C9">
-        <v>-9.1418399999999949</v>
+        <v>-9.4870499999999964</v>
       </c>
       <c r="D9" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>36.760669999999998</v>
+        <v>36.159930000000003</v>
       </c>
       <c r="C10">
-        <v>-8.5411000000000001</v>
+        <v>-9.1418399999999949</v>
       </c>
       <c r="D10" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11">
-        <v>37.646970000000003</v>
+        <v>36.760669999999998</v>
       </c>
       <c r="C11">
-        <v>-7.6547999999999945</v>
+        <v>-8.5411000000000001</v>
       </c>
       <c r="D11" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B12">
-        <v>37.88617</v>
+        <v>37.646970000000003</v>
       </c>
       <c r="C12">
-        <v>-7.4155999999999977</v>
+        <v>-7.6547999999999945</v>
       </c>
       <c r="D12" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>38.094299999999997</v>
+        <v>37.88617</v>
       </c>
       <c r="C13">
-        <v>-7.2074700000000007</v>
+        <v>-7.4155999999999977</v>
       </c>
       <c r="D13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>40.173389999999998</v>
+        <v>38.094299999999997</v>
       </c>
       <c r="C14">
-        <v>-5.1283799999999999</v>
+        <v>-7.2074700000000007</v>
       </c>
       <c r="D14" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>41.252009999999999</v>
+        <v>40.173389999999998</v>
       </c>
       <c r="C15">
-        <v>-4.0497599999999991</v>
+        <v>-5.1283799999999999</v>
       </c>
       <c r="D15" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>41.458480000000002</v>
+        <v>41.252009999999999</v>
       </c>
       <c r="C16">
-        <v>-3.8432899999999961</v>
+        <v>-4.0497599999999991</v>
       </c>
       <c r="D16" t="s">
-        <v>404</v>
+        <v>425</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B17">
-        <v>43.677590000000002</v>
+        <v>41.458480000000002</v>
       </c>
       <c r="C17">
-        <v>-1.6241799999999955</v>
+        <v>-3.8432899999999961</v>
       </c>
       <c r="D17" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B18">
-        <v>44.943750000000001</v>
+        <v>43.677590000000002</v>
       </c>
       <c r="C18">
-        <v>-0.35801999999999623</v>
+        <v>-1.6241799999999955</v>
       </c>
       <c r="D18" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B19">
         <v>44.943750000000001</v>
@@ -5083,96 +5113,110 @@
         <v>-0.35801999999999623</v>
       </c>
       <c r="D19" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B20">
-        <v>45.301769999999998</v>
+        <v>44.943750000000001</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>-0.35801999999999623</v>
       </c>
       <c r="D20" t="s">
-        <v>338</v>
+        <v>413</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B21">
-        <v>45.916969999999999</v>
+        <v>45.301769999999998</v>
       </c>
       <c r="C21">
-        <v>0.61520000000000152</v>
+        <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>416</v>
+        <v>338</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B22">
-        <v>47.688540000000003</v>
+        <v>45.916969999999999</v>
       </c>
       <c r="C22">
-        <v>2.3867700000000056</v>
+        <v>0.61520000000000152</v>
       </c>
       <c r="D22" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B23">
-        <v>48.093980000000002</v>
+        <v>47.688540000000003</v>
       </c>
       <c r="C23">
-        <v>2.7922100000000043</v>
+        <v>2.3867700000000056</v>
       </c>
       <c r="D23" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B24">
-        <v>50.391179999999999</v>
+        <v>48.093980000000002</v>
       </c>
       <c r="C24">
-        <v>5.0894100000000009</v>
+        <v>2.7922100000000043</v>
       </c>
       <c r="D24" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
+        <v>11</v>
+      </c>
+      <c r="B25">
+        <v>50.391179999999999</v>
+      </c>
+      <c r="C25">
+        <v>5.0894100000000009</v>
+      </c>
+      <c r="D25" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
         <v>23</v>
       </c>
-      <c r="B25">
+      <c r="B26">
         <v>52.453769999999999</v>
       </c>
-      <c r="C25">
+      <c r="C26">
         <v>7.152000000000001</v>
       </c>
-      <c r="D25" t="s">
-        <v>424</v>
+      <c r="D26" t="s">
+        <v>427</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D25">
-    <sortCondition ref="C2:C25"/>
+  <sortState ref="A2:D26">
+    <sortCondition ref="C2:C26"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/output/ModelOutput.xlsx
+++ b/output/ModelOutput.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7188" firstSheet="10" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7185" firstSheet="14" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="RawRecruits" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,9 @@
     <sheet name="AICc_Era1_GAM_forPaper" sheetId="15" r:id="rId14"/>
     <sheet name="AICc_Era2_GAM_output" sheetId="16" r:id="rId15"/>
     <sheet name="AICc_Era2_GAM_forPaper" sheetId="17" r:id="rId16"/>
+    <sheet name="SR_GAMM" sheetId="18" r:id="rId17"/>
+    <sheet name="GAMM_AICc_Era1" sheetId="21" r:id="rId18"/>
+    <sheet name="GAMM_AICc_Era2" sheetId="22" r:id="rId19"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="445">
   <si>
     <t>Model 1</t>
   </si>
@@ -1356,6 +1359,48 @@
   </si>
   <si>
     <t>CB females, , AO 3 yr rolling average</t>
+  </si>
+  <si>
+    <t>1.8 (3.13e-09)</t>
+  </si>
+  <si>
+    <t>S (edf)</t>
+  </si>
+  <si>
+    <t>3.448(&lt;2e-16)</t>
+  </si>
+  <si>
+    <t>1.36 (3.7e-10)</t>
+  </si>
+  <si>
+    <t>3.53 (&lt;2e-16)</t>
+  </si>
+  <si>
+    <t>1.37(1.39e-09)</t>
+  </si>
+  <si>
+    <t>3.092 (&lt;2e-16)</t>
+  </si>
+  <si>
+    <t>Phi</t>
+  </si>
+  <si>
+    <t>CB females, flathead sole TBM, Pacific cod 3 yr rolling average</t>
+  </si>
+  <si>
+    <t>CB females,  PDO 3 yr rolling average</t>
+  </si>
+  <si>
+    <t>CB females, FHS TBM (linear),  AO 3 yr rolling average</t>
+  </si>
+  <si>
+    <t>CB females, FHS TBM (linear), PDO 3 yr rolling average</t>
+  </si>
+  <si>
+    <t>CB females, flathead sole TBM (linear)</t>
+  </si>
+  <si>
+    <t>CB females, FHS TBM (linear)</t>
   </si>
 </sst>
 </file>
@@ -1927,20 +1972,20 @@
       <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.109375" customWidth="1"/>
-    <col min="18" max="18" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" customWidth="1"/>
+    <col min="18" max="18" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1948,7 +1993,7 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1959,7 +2004,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1997,7 +2042,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
@@ -2036,7 +2081,7 @@
         <v>49.76</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
@@ -2072,7 +2117,7 @@
         <v>47.17</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
@@ -2110,7 +2155,7 @@
         <v>47.06</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
@@ -2142,7 +2187,7 @@
         <v>46.45</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
@@ -2156,7 +2201,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
@@ -2168,7 +2213,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>21</v>
       </c>
@@ -2180,12 +2225,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
       <c r="C11" s="2"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -2193,7 +2238,7 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
@@ -2204,7 +2249,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>3</v>
       </c>
@@ -2215,7 +2260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>4</v>
       </c>
@@ -2226,7 +2271,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>7</v>
       </c>
@@ -2237,7 +2282,7 @@
         <v>0.1452</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>8</v>
       </c>
@@ -2248,7 +2293,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>6</v>
       </c>
@@ -2259,7 +2304,7 @@
         <v>1.1599999999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>17</v>
       </c>
@@ -2268,7 +2313,7 @@
       </c>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>21</v>
       </c>
@@ -2277,12 +2322,12 @@
       </c>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>11</v>
       </c>
@@ -2290,7 +2335,7 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>1</v>
       </c>
@@ -2301,7 +2346,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>3</v>
       </c>
@@ -2312,7 +2357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>4</v>
       </c>
@@ -2323,7 +2368,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>7</v>
       </c>
@@ -2334,7 +2379,7 @@
         <v>5.33E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>12</v>
       </c>
@@ -2345,7 +2390,7 @@
         <v>8.8400000000000006E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>8</v>
       </c>
@@ -2356,7 +2401,7 @@
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>6</v>
       </c>
@@ -2367,7 +2412,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
         <v>17</v>
       </c>
@@ -2376,7 +2421,7 @@
       </c>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
         <v>21</v>
       </c>
@@ -2385,12 +2430,12 @@
       </c>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
       <c r="C32" s="2"/>
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>10</v>
       </c>
@@ -2398,7 +2443,7 @@
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
         <v>1</v>
       </c>
@@ -2409,7 +2454,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2420,7 +2465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
         <v>4</v>
       </c>
@@ -2431,7 +2476,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
         <v>8</v>
       </c>
@@ -2442,7 +2487,7 @@
         <v>1.1999999999999999E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
         <v>6</v>
       </c>
@@ -2453,7 +2498,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
         <v>17</v>
       </c>
@@ -2462,7 +2507,7 @@
       </c>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
         <v>21</v>
       </c>
@@ -2485,9 +2530,9 @@
       <selection sqref="A1:N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>127</v>
       </c>
@@ -2531,7 +2576,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="31">
         <v>1</v>
       </c>
@@ -2553,7 +2598,7 @@
       <c r="M2" s="33"/>
       <c r="N2" s="33"/>
     </row>
-    <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="31">
         <v>2</v>
       </c>
@@ -2575,7 +2620,7 @@
       <c r="M3" s="33"/>
       <c r="N3" s="33"/>
     </row>
-    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="31">
         <v>3</v>
       </c>
@@ -2599,7 +2644,7 @@
       <c r="M4" s="33"/>
       <c r="N4" s="33"/>
     </row>
-    <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="31">
         <v>4</v>
       </c>
@@ -2623,7 +2668,7 @@
       <c r="M5" s="33"/>
       <c r="N5" s="33"/>
     </row>
-    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="31">
         <v>5</v>
       </c>
@@ -2647,7 +2692,7 @@
       <c r="M6" s="33"/>
       <c r="N6" s="33"/>
     </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="31">
         <v>6</v>
       </c>
@@ -2671,7 +2716,7 @@
       <c r="M7" s="33"/>
       <c r="N7" s="33"/>
     </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="31">
         <v>7</v>
       </c>
@@ -2695,7 +2740,7 @@
       <c r="M8" s="33"/>
       <c r="N8" s="33"/>
     </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="31">
         <v>8</v>
       </c>
@@ -2719,7 +2764,7 @@
       <c r="M9" s="33"/>
       <c r="N9" s="33"/>
     </row>
-    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="31">
         <v>9</v>
       </c>
@@ -2745,7 +2790,7 @@
       <c r="M10" s="33"/>
       <c r="N10" s="33"/>
     </row>
-    <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="31">
         <v>10</v>
       </c>
@@ -2771,7 +2816,7 @@
       <c r="M11" s="33"/>
       <c r="N11" s="33"/>
     </row>
-    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="31">
         <v>11</v>
       </c>
@@ -2797,7 +2842,7 @@
       <c r="M12" s="33"/>
       <c r="N12" s="33"/>
     </row>
-    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="31">
         <v>12</v>
       </c>
@@ -2823,7 +2868,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="31">
         <v>13</v>
       </c>
@@ -2849,7 +2894,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="31">
         <v>14</v>
       </c>
@@ -2873,7 +2918,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="31">
         <v>15</v>
       </c>
@@ -2899,7 +2944,7 @@
       </c>
       <c r="N16" s="33"/>
     </row>
-    <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="31">
         <v>16</v>
       </c>
@@ -2923,7 +2968,7 @@
       </c>
       <c r="N17" s="33"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="34" t="s">
         <v>370</v>
       </c>
@@ -2943,18 +2988,18 @@
       <selection pane="bottomLeft" activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
-    <col min="4" max="4" width="25.44140625" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" customWidth="1"/>
-    <col min="11" max="11" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
         <v>127</v>
       </c>
@@ -2998,7 +3043,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="35">
         <v>1</v>
       </c>
@@ -3020,7 +3065,7 @@
       <c r="M2" s="22"/>
       <c r="N2" s="22"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="35">
         <v>2</v>
       </c>
@@ -3042,7 +3087,7 @@
       <c r="M3" s="22"/>
       <c r="N3" s="22"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="35">
         <v>3</v>
       </c>
@@ -3066,7 +3111,7 @@
       <c r="M4" s="22"/>
       <c r="N4" s="22"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="35">
         <v>4</v>
       </c>
@@ -3090,7 +3135,7 @@
       <c r="M5" s="22"/>
       <c r="N5" s="22"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="35">
         <v>5</v>
       </c>
@@ -3114,7 +3159,7 @@
       <c r="M6" s="22"/>
       <c r="N6" s="22"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="35">
         <v>6</v>
       </c>
@@ -3138,7 +3183,7 @@
       <c r="M7" s="22"/>
       <c r="N7" s="22"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="35">
         <v>7</v>
       </c>
@@ -3162,7 +3207,7 @@
       <c r="M8" s="22"/>
       <c r="N8" s="22"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="35">
         <v>8</v>
       </c>
@@ -3186,7 +3231,7 @@
       <c r="M9" s="22"/>
       <c r="N9" s="22"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="35">
         <v>9</v>
       </c>
@@ -3212,7 +3257,7 @@
       <c r="M10" s="22"/>
       <c r="N10" s="22"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="35">
         <v>10</v>
       </c>
@@ -3238,7 +3283,7 @@
       <c r="M11" s="22"/>
       <c r="N11" s="22"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="35">
         <v>11</v>
       </c>
@@ -3264,7 +3309,7 @@
       <c r="M12" s="22"/>
       <c r="N12" s="22"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="35">
         <v>12</v>
       </c>
@@ -3290,7 +3335,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="35">
         <v>13</v>
       </c>
@@ -3316,7 +3361,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="35">
         <v>14</v>
       </c>
@@ -3340,7 +3385,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="35">
         <v>15</v>
       </c>
@@ -3366,7 +3411,7 @@
       </c>
       <c r="N16" s="22"/>
     </row>
-    <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="37">
         <v>16</v>
       </c>
@@ -3390,7 +3435,7 @@
       </c>
       <c r="N17" s="38"/>
     </row>
-    <row r="18" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>127</v>
       </c>
@@ -3404,7 +3449,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="35">
         <v>1</v>
       </c>
@@ -3415,7 +3460,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="35">
         <v>2</v>
       </c>
@@ -3430,7 +3475,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="35">
         <v>3</v>
       </c>
@@ -3445,7 +3490,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="35">
         <v>4</v>
       </c>
@@ -3460,7 +3505,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="35">
         <v>5</v>
       </c>
@@ -3475,7 +3520,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="35">
         <v>6</v>
       </c>
@@ -3490,7 +3535,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="35">
         <v>7</v>
       </c>
@@ -3505,7 +3550,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="35">
         <v>8</v>
       </c>
@@ -3520,7 +3565,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="35">
         <v>9</v>
       </c>
@@ -3535,7 +3580,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="35">
         <v>10</v>
       </c>
@@ -3550,7 +3595,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="35">
         <v>11</v>
       </c>
@@ -3565,7 +3610,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="35">
         <v>12</v>
       </c>
@@ -3580,7 +3625,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="35">
         <v>13</v>
       </c>
@@ -3595,7 +3640,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="35">
         <v>14</v>
       </c>
@@ -3610,7 +3655,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="35">
         <v>15</v>
       </c>
@@ -3625,7 +3670,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="35">
         <v>16</v>
       </c>
@@ -3640,7 +3685,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="35">
         <v>17</v>
       </c>
@@ -3655,7 +3700,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3665,17 +3710,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.109375" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
     <col min="4" max="4" width="56" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>127</v>
       </c>
@@ -3689,7 +3734,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>16</v>
       </c>
@@ -3703,7 +3748,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>13</v>
       </c>
@@ -3717,7 +3762,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>6</v>
       </c>
@@ -3731,7 +3776,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>12</v>
       </c>
@@ -3745,7 +3790,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>8</v>
       </c>
@@ -3759,7 +3804,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>10</v>
       </c>
@@ -3773,7 +3818,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>9</v>
       </c>
@@ -3787,7 +3832,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>11</v>
       </c>
@@ -3801,7 +3846,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>14</v>
       </c>
@@ -3815,7 +3860,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>4</v>
       </c>
@@ -3829,7 +3874,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>7</v>
       </c>
@@ -3843,7 +3888,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>17</v>
       </c>
@@ -3857,7 +3902,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>2</v>
       </c>
@@ -3871,7 +3916,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>3</v>
       </c>
@@ -3885,7 +3930,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>5</v>
       </c>
@@ -3899,7 +3944,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>1</v>
       </c>
@@ -3913,7 +3958,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>15</v>
       </c>
@@ -3943,13 +3988,13 @@
       <selection sqref="A1:D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.109375" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
     <col min="4" max="4" width="56" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>127</v>
       </c>
@@ -3963,7 +4008,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -3977,7 +4022,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -3992,7 +4037,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -4007,7 +4052,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -4022,7 +4067,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -4037,7 +4082,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -4052,7 +4097,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -4067,7 +4112,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -4082,7 +4127,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -4097,7 +4142,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -4112,7 +4157,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -4127,7 +4172,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>12</v>
       </c>
@@ -4142,7 +4187,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>13</v>
       </c>
@@ -4157,7 +4202,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>14</v>
       </c>
@@ -4172,19 +4217,19 @@
         <v>403</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="41"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="41"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -4200,17 +4245,17 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>127</v>
       </c>
@@ -4224,7 +4269,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>7</v>
       </c>
@@ -4238,7 +4283,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4252,7 +4297,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5</v>
       </c>
@@ -4266,7 +4311,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6</v>
       </c>
@@ -4280,7 +4325,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>8</v>
       </c>
@@ -4294,7 +4339,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>11</v>
       </c>
@@ -4308,7 +4353,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>12</v>
       </c>
@@ -4322,7 +4367,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>13</v>
       </c>
@@ -4336,7 +4381,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -4350,7 +4395,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -4364,7 +4409,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>14</v>
       </c>
@@ -4378,7 +4423,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
@@ -4392,7 +4437,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -4406,7 +4451,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4</v>
       </c>
@@ -4425,6 +4470,7 @@
     <sortCondition ref="C2:C15"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4436,13 +4482,13 @@
       <selection sqref="A1:D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>127</v>
       </c>
@@ -4456,7 +4502,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4470,7 +4516,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4485,7 +4531,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4500,7 +4546,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4515,7 +4561,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4530,7 +4576,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4545,7 +4591,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4560,7 +4606,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4575,7 +4621,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4590,7 +4636,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4605,7 +4651,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4620,7 +4666,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4635,7 +4681,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4650,7 +4696,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4665,7 +4711,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4680,7 +4726,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4695,7 +4741,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4710,7 +4756,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4725,7 +4771,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4740,7 +4786,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4755,7 +4801,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4770,7 +4816,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4785,7 +4831,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4800,7 +4846,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4815,7 +4861,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4843,14 +4889,14 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="59" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>127</v>
       </c>
@@ -4864,7 +4910,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>12</v>
       </c>
@@ -4878,7 +4924,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>25</v>
       </c>
@@ -4892,7 +4938,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>20</v>
       </c>
@@ -4906,7 +4952,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>24</v>
       </c>
@@ -4920,7 +4966,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -4934,7 +4980,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>17</v>
       </c>
@@ -4948,7 +4994,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -4962,7 +5008,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>16</v>
       </c>
@@ -4976,7 +5022,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>13</v>
       </c>
@@ -4990,7 +5036,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
@@ -5004,7 +5050,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4</v>
       </c>
@@ -5018,7 +5064,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>18</v>
       </c>
@@ -5032,7 +5078,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>22</v>
       </c>
@@ -5046,7 +5092,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>19</v>
       </c>
@@ -5060,7 +5106,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>21</v>
       </c>
@@ -5074,7 +5120,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -5088,7 +5134,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>14</v>
       </c>
@@ -5102,7 +5148,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>7</v>
       </c>
@@ -5116,7 +5162,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>9</v>
       </c>
@@ -5130,7 +5176,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -5144,7 +5190,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>15</v>
       </c>
@@ -5158,7 +5204,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>8</v>
       </c>
@@ -5172,7 +5218,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>10</v>
       </c>
@@ -5186,7 +5232,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>11</v>
       </c>
@@ -5200,7 +5246,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>23</v>
       </c>
@@ -5218,6 +5264,912 @@
   <sortState ref="A2:D26">
     <sortCondition ref="C2:C26"/>
   </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>431</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="12">
+        <v>0.38</v>
+      </c>
+      <c r="C5" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>90.73</v>
+      </c>
+      <c r="C6">
+        <v>86.42</v>
+      </c>
+      <c r="D6">
+        <v>91.57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="54.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>42.46</v>
+      </c>
+      <c r="C2">
+        <f>B2-$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0.18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>55.75</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C14" si="0">B3-$B$2</f>
+        <v>13.29</v>
+      </c>
+      <c r="D3">
+        <v>0.02</v>
+      </c>
+      <c r="E3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>56.43</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>13.969999999999999</v>
+      </c>
+      <c r="D4">
+        <v>0.12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>48.78</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>6.32</v>
+      </c>
+      <c r="D5">
+        <v>-0.32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>78.78</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>36.32</v>
+      </c>
+      <c r="D6">
+        <v>-0.27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>68.95</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>26.490000000000002</v>
+      </c>
+      <c r="D7">
+        <v>-0.36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>78.650000000000006</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>36.190000000000005</v>
+      </c>
+      <c r="D8">
+        <v>-0.33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>77.89</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>35.43</v>
+      </c>
+      <c r="D9">
+        <v>-0.37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>79.040000000000006</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>36.580000000000005</v>
+      </c>
+      <c r="D10">
+        <v>-0.31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>60.84</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>18.380000000000003</v>
+      </c>
+      <c r="D11">
+        <v>-0.31</v>
+      </c>
+      <c r="E11" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>79.11</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>36.65</v>
+      </c>
+      <c r="D12">
+        <v>-0.32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>36.639999999999993</v>
+      </c>
+      <c r="D13">
+        <v>-0.32</v>
+      </c>
+      <c r="E13" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>40.119999999999997</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>-2.3400000000000034</v>
+      </c>
+      <c r="D14">
+        <v>-0.32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>443</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="64" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>48.69</v>
+      </c>
+      <c r="C2">
+        <f>B2-$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0.46</v>
+      </c>
+      <c r="E2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>54.66</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C29" si="0">B3-$B$2</f>
+        <v>5.9699999999999989</v>
+      </c>
+      <c r="D3">
+        <v>0.22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>55.96</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>7.2700000000000031</v>
+      </c>
+      <c r="D4">
+        <v>0.5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>65.88</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>17.189999999999998</v>
+      </c>
+      <c r="D5">
+        <v>0.16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>58.91</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>10.219999999999999</v>
+      </c>
+      <c r="D6">
+        <v>-0.11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>49.96</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>1.2700000000000031</v>
+      </c>
+      <c r="D7">
+        <v>0.1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>43.72</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>-4.9699999999999989</v>
+      </c>
+      <c r="D8">
+        <v>0.75</v>
+      </c>
+      <c r="E8" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>55.86</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>7.1700000000000017</v>
+      </c>
+      <c r="D9">
+        <v>0.47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>54.68</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>5.990000000000002</v>
+      </c>
+      <c r="D10">
+        <v>0.75</v>
+      </c>
+      <c r="E10" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>55.46</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>6.7700000000000031</v>
+      </c>
+      <c r="D11">
+        <v>0.75</v>
+      </c>
+      <c r="E11" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>48.73</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>3.9999999999999147E-2</v>
+      </c>
+      <c r="D12">
+        <v>0.7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>52.9</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>4.2100000000000009</v>
+      </c>
+      <c r="D13">
+        <v>0.74</v>
+      </c>
+      <c r="E13" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>54.14</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>5.4500000000000028</v>
+      </c>
+      <c r="D14">
+        <v>0.74</v>
+      </c>
+      <c r="E14" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>47.77</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>-0.9199999999999946</v>
+      </c>
+      <c r="D15">
+        <v>0.74</v>
+      </c>
+      <c r="E15" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>49.05</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>0.35999999999999943</v>
+      </c>
+      <c r="D16">
+        <v>0.64</v>
+      </c>
+      <c r="E16" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>49.96</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>1.2700000000000031</v>
+      </c>
+      <c r="D17">
+        <v>0.1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>61.49</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>12.800000000000004</v>
+      </c>
+      <c r="D18">
+        <v>0.08</v>
+      </c>
+      <c r="E18" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>60.79</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>12.100000000000001</v>
+      </c>
+      <c r="D19">
+        <v>-0.5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>54.5</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>5.8100000000000023</v>
+      </c>
+      <c r="D20">
+        <v>-0.25</v>
+      </c>
+      <c r="E20" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>60.43</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>11.740000000000002</v>
+      </c>
+      <c r="D21">
+        <v>0.03</v>
+      </c>
+      <c r="E21" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>61.46</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>12.770000000000003</v>
+      </c>
+      <c r="D22">
+        <v>0.49</v>
+      </c>
+      <c r="E22" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>62.08</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>13.39</v>
+      </c>
+      <c r="D23">
+        <v>0.49</v>
+      </c>
+      <c r="E23" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>55.7</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>7.0100000000000051</v>
+      </c>
+      <c r="D24">
+        <v>-0.03</v>
+      </c>
+      <c r="E24" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>44.57</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>-4.1199999999999974</v>
+      </c>
+      <c r="D25">
+        <v>-0.16</v>
+      </c>
+      <c r="E25" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>54.28</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>5.5900000000000034</v>
+      </c>
+      <c r="D26">
+        <v>0.41</v>
+      </c>
+      <c r="E26" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>42.37</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>-6.32</v>
+      </c>
+      <c r="D27">
+        <v>0.69</v>
+      </c>
+      <c r="E27" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>42.69</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>-6</v>
+      </c>
+      <c r="D28">
+        <v>0.64</v>
+      </c>
+      <c r="E28" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>39.1</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>-9.5899999999999963</v>
+      </c>
+      <c r="D29">
+        <v>0.75</v>
+      </c>
+      <c r="E29" t="s">
+        <v>444</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5230,20 +6182,20 @@
       <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="35.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -5278,7 +6230,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -5316,7 +6268,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
@@ -5351,7 +6303,7 @@
         <v>84.55</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
@@ -5389,7 +6341,7 @@
         <v>81.96</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
@@ -5424,7 +6376,7 @@
         <v>81.2</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
@@ -5456,7 +6408,7 @@
         <v>82.03</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
@@ -5485,7 +6437,7 @@
         <v>80.47</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
@@ -5496,7 +6448,7 @@
         <v>0.97460000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
@@ -5505,7 +6457,7 @@
       </c>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>21</v>
       </c>
@@ -5514,12 +6466,12 @@
       </c>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
       <c r="C11" s="2"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -5527,7 +6479,7 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
@@ -5538,7 +6490,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>3</v>
       </c>
@@ -5549,7 +6501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>4</v>
       </c>
@@ -5560,7 +6512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>7</v>
       </c>
@@ -5571,7 +6523,7 @@
         <v>0.44629999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>8</v>
       </c>
@@ -5582,7 +6534,7 @@
         <v>1.8200000000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>6</v>
       </c>
@@ -5593,7 +6545,7 @@
         <v>0.26219999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>17</v>
       </c>
@@ -5602,7 +6554,7 @@
       </c>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>21</v>
       </c>
@@ -5611,12 +6563,12 @@
       </c>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
@@ -5624,7 +6576,7 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>1</v>
       </c>
@@ -5635,7 +6587,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>3</v>
       </c>
@@ -5646,7 +6598,7 @@
         <v>0.94220000000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>4</v>
       </c>
@@ -5657,7 +6609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>7</v>
       </c>
@@ -5668,7 +6620,7 @@
         <v>2.0799999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>12</v>
       </c>
@@ -5679,7 +6631,7 @@
         <v>2.69E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>8</v>
       </c>
@@ -5690,7 +6642,7 @@
         <v>2.3800000000000002E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>6</v>
       </c>
@@ -5701,7 +6653,7 @@
         <v>0.1394</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
         <v>17</v>
       </c>
@@ -5710,7 +6662,7 @@
       </c>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
         <v>21</v>
       </c>
@@ -5719,12 +6671,12 @@
       </c>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>18</v>
       </c>
@@ -5732,7 +6684,7 @@
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
         <v>1</v>
       </c>
@@ -5743,7 +6695,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
         <v>3</v>
       </c>
@@ -5754,7 +6706,7 @@
         <v>0.6915</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
         <v>4</v>
       </c>
@@ -5765,7 +6717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
         <v>7</v>
       </c>
@@ -5776,7 +6728,7 @@
         <v>3.3399999999999999E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
         <v>12</v>
       </c>
@@ -5787,7 +6739,7 @@
         <v>4.2799999999999998E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
         <v>8</v>
       </c>
@@ -5798,7 +6750,7 @@
         <v>4.0899999999999999E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
         <v>17</v>
       </c>
@@ -5807,7 +6759,7 @@
       </c>
       <c r="D40" s="3"/>
     </row>
-    <row r="41" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
         <v>21</v>
       </c>
@@ -5816,12 +6768,12 @@
       </c>
       <c r="D41" s="3"/>
     </row>
-    <row r="42" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>19</v>
       </c>
@@ -5829,7 +6781,7 @@
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
         <v>1</v>
       </c>
@@ -5840,7 +6792,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
         <v>3</v>
       </c>
@@ -5851,7 +6803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="3" t="s">
         <v>4</v>
       </c>
@@ -5862,7 +6814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B47" s="3" t="s">
         <v>8</v>
       </c>
@@ -5873,7 +6825,7 @@
         <v>2.2100000000000002E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="s">
         <v>6</v>
       </c>
@@ -5884,7 +6836,7 @@
         <v>0.2676</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49" s="3" t="s">
         <v>17</v>
       </c>
@@ -5893,7 +6845,7 @@
       </c>
       <c r="D49" s="3"/>
     </row>
-    <row r="50" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="s">
         <v>21</v>
       </c>
@@ -5902,12 +6854,12 @@
       </c>
       <c r="D50" s="3"/>
     </row>
-    <row r="51" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
     </row>
-    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>20</v>
       </c>
@@ -5915,7 +6867,7 @@
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
     </row>
-    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="s">
         <v>1</v>
       </c>
@@ -5926,7 +6878,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B54" s="3" t="s">
         <v>3</v>
       </c>
@@ -5937,7 +6889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B55" s="3" t="s">
         <v>4</v>
       </c>
@@ -5948,7 +6900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B56" s="3" t="s">
         <v>8</v>
       </c>
@@ -5959,7 +6911,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B57" s="3" t="s">
         <v>17</v>
       </c>
@@ -5968,7 +6920,7 @@
       </c>
       <c r="D57" s="3"/>
     </row>
-    <row r="58" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B58" s="3" t="s">
         <v>21</v>
       </c>
@@ -5990,20 +6942,20 @@
       <selection sqref="A1:K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
         <v>76</v>
@@ -6036,7 +6988,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -6069,7 +7021,7 @@
         <v>49.76</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -6100,7 +7052,7 @@
         <v>47.17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -6133,7 +7085,7 @@
         <v>47.06</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -6162,7 +7114,7 @@
         <v>46.45</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -6195,7 +7147,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
@@ -6226,7 +7178,7 @@
         <v>84.55</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>46</v>
       </c>
@@ -6259,7 +7211,7 @@
         <v>81.96</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>47</v>
       </c>
@@ -6290,7 +7242,7 @@
         <v>81.2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -6319,7 +7271,7 @@
         <v>82.03</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
@@ -6360,22 +7312,22 @@
       <selection sqref="A1:K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.88671875" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" customWidth="1"/>
-    <col min="9" max="9" width="9.44140625" customWidth="1"/>
-    <col min="10" max="10" width="4.88671875" customWidth="1"/>
-    <col min="11" max="11" width="6.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" customWidth="1"/>
+    <col min="10" max="10" width="4.85546875" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="13"/>
       <c r="B1" s="13" t="s">
         <v>89</v>
@@ -6408,7 +7360,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -6421,7 +7373,7 @@
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
@@ -6454,7 +7406,7 @@
         <v>49.76</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>9</v>
       </c>
@@ -6485,7 +7437,7 @@
         <v>47.17</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>11</v>
       </c>
@@ -6518,7 +7470,7 @@
         <v>47.06</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>10</v>
       </c>
@@ -6547,7 +7499,7 @@
         <v>46.45</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>14</v>
       </c>
@@ -6580,7 +7532,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>15</v>
       </c>
@@ -6611,7 +7563,7 @@
         <v>84.55</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>46</v>
       </c>
@@ -6644,7 +7596,7 @@
         <v>81.96</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>47</v>
       </c>
@@ -6675,7 +7627,7 @@
         <v>81.2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>19</v>
       </c>
@@ -6704,7 +7656,7 @@
         <v>82.03</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>20</v>
       </c>
@@ -6731,7 +7683,7 @@
         <v>80.47</v>
       </c>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>91</v>
       </c>
@@ -6750,19 +7702,19 @@
       <selection activeCell="B25" sqref="A1:B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.44140625" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -6770,7 +7722,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>80</v>
       </c>
@@ -6781,7 +7733,7 @@
         <v>-3.1602179999999999E-8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -6789,7 +7741,7 @@
         <v>0.75448789999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>81</v>
       </c>
@@ -6797,7 +7749,7 @@
         <v>114.1324</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>82</v>
       </c>
@@ -6805,7 +7757,7 @@
         <v>119.9953</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>83</v>
       </c>
@@ -6813,25 +7765,25 @@
         <v>-53.066200000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
@@ -6839,7 +7791,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>80</v>
       </c>
@@ -6850,7 +7802,7 @@
         <v>-3.4309010000000003E-8</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
@@ -6858,7 +7810,7 @@
         <v>0.62037410000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>81</v>
       </c>
@@ -6866,7 +7818,7 @@
         <v>130.20050000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>82</v>
       </c>
@@ -6874,7 +7826,7 @@
         <v>136.53460000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>83</v>
       </c>
@@ -6882,17 +7834,17 @@
         <v>-61.100259999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>3</v>
       </c>
@@ -6900,7 +7852,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>80</v>
       </c>
@@ -6908,7 +7860,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>17</v>
       </c>
@@ -6919,7 +7871,7 @@
         <v>-2.3578020000000001E-8</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>81</v>
       </c>
@@ -6927,7 +7879,7 @@
         <v>131.29929999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>82</v>
       </c>
@@ -6935,7 +7887,7 @@
         <v>137.5206</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>83</v>
       </c>
@@ -6954,17 +7906,17 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:B36"/>
+      <selection sqref="A1:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="25" t="s">
@@ -6972,7 +7924,7 @@
       </c>
       <c r="D1" s="10"/>
     </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="19" t="s">
         <v>79</v>
@@ -6984,7 +7936,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
@@ -6998,7 +7950,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>80</v>
       </c>
@@ -7012,7 +7964,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>17</v>
       </c>
@@ -7026,13 +7978,13 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
     </row>
-    <row r="7" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="12"/>
       <c r="C7" s="25" t="s">
@@ -7040,7 +7992,7 @@
       </c>
       <c r="D7" s="12"/>
     </row>
-    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="19" t="s">
         <v>79</v>
@@ -7052,7 +8004,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>3</v>
       </c>
@@ -7066,7 +8018,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>80</v>
       </c>
@@ -7080,7 +8032,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>17</v>
       </c>
@@ -7094,13 +8046,13 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="18"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
     </row>
-    <row r="13" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="12"/>
       <c r="C13" s="25" t="s">
@@ -7108,7 +8060,7 @@
       </c>
       <c r="D13" s="12"/>
     </row>
-    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="19" t="s">
         <v>79</v>
@@ -7120,7 +8072,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>3</v>
       </c>
@@ -7134,7 +8086,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>80</v>
       </c>
@@ -7148,7 +8100,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>17</v>
       </c>
@@ -7162,13 +8114,13 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
       <c r="B18" s="12"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
     </row>
-    <row r="19" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="12"/>
       <c r="C19" s="25" t="s">
@@ -7176,7 +8128,7 @@
       </c>
       <c r="D19" s="12"/>
     </row>
-    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="19" t="s">
         <v>79</v>
@@ -7188,7 +8140,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>3</v>
       </c>
@@ -7202,7 +8154,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>80</v>
       </c>
@@ -7216,7 +8168,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>17</v>
       </c>
@@ -7230,55 +8182,55 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="5"/>
     </row>
-    <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="5"/>
     </row>
-    <row r="33" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="2"/>
     </row>
-    <row r="35" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="2"/>
     </row>
-    <row r="36" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="2"/>
     </row>
@@ -7296,13 +8248,13 @@
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="13"/>
       <c r="B1" s="13" t="s">
         <v>89</v>
@@ -7326,7 +8278,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -7336,7 +8288,7 @@
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
@@ -7362,7 +8314,7 @@
         <v>1314.7249999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>9</v>
       </c>
@@ -7386,7 +8338,7 @@
         <v>1302.212</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>10</v>
       </c>
@@ -7408,7 +8360,7 @@
         <v>1290.4110000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>14</v>
       </c>
@@ -7434,7 +8386,7 @@
         <v>93.784390000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>15</v>
       </c>
@@ -7458,7 +8410,7 @@
         <v>76.300929999999994</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>19</v>
       </c>
@@ -7480,7 +8432,7 @@
         <v>67.461749999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>20</v>
       </c>
@@ -7502,7 +8454,7 @@
         <v>64.301199999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>99</v>
       </c>
@@ -7522,7 +8474,7 @@
         <v>56.57602</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="16"/>
@@ -7532,7 +8484,7 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="16"/>
@@ -7555,17 +8507,17 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
-    <col min="12" max="12" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>127</v>
       </c>
@@ -7621,7 +8573,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>20</v>
       </c>
@@ -7632,7 +8584,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>21</v>
       </c>
@@ -7643,7 +8595,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>22</v>
       </c>
@@ -7654,7 +8606,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>23</v>
       </c>
@@ -7665,7 +8617,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>24</v>
       </c>
@@ -7676,7 +8628,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>25</v>
       </c>
@@ -7687,7 +8639,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>26</v>
       </c>
@@ -7698,7 +8650,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>27</v>
       </c>
@@ -7709,7 +8661,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>28</v>
       </c>
@@ -7720,7 +8672,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>29</v>
       </c>
@@ -7731,7 +8683,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>30</v>
       </c>
@@ -7742,7 +8694,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>31</v>
       </c>
@@ -7753,7 +8705,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>32</v>
       </c>
@@ -7764,7 +8716,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>33</v>
       </c>
@@ -7775,7 +8727,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>34</v>
       </c>
@@ -7786,7 +8738,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21">
         <v>35</v>
       </c>
@@ -7797,7 +8749,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>127</v>
       </c>
@@ -7853,7 +8805,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>40</v>
       </c>
@@ -7864,7 +8816,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>41</v>
       </c>
@@ -7878,7 +8830,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>42</v>
       </c>
@@ -7892,7 +8844,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>43</v>
       </c>
@@ -7906,7 +8858,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>44</v>
       </c>
@@ -7920,7 +8872,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>45</v>
       </c>
@@ -7934,7 +8886,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>46</v>
       </c>
@@ -7948,7 +8900,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>47</v>
       </c>
@@ -7962,7 +8914,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>48</v>
       </c>
@@ -7976,7 +8928,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>49</v>
       </c>
@@ -7990,7 +8942,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>50</v>
       </c>
@@ -8004,7 +8956,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>51</v>
       </c>
@@ -8018,7 +8970,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>52</v>
       </c>
@@ -8032,7 +8984,7 @@
         <v>8.3199999999999996E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>53</v>
       </c>
@@ -8046,7 +8998,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>54</v>
       </c>
@@ -8060,7 +9012,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>55</v>
       </c>
@@ -8074,7 +9026,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="35" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="s">
         <v>127</v>
       </c>
@@ -8133,7 +9085,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>60</v>
       </c>
@@ -8147,7 +9099,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>61</v>
       </c>
@@ -8164,7 +9116,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>62</v>
       </c>
@@ -8181,7 +9133,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>63</v>
       </c>
@@ -8198,7 +9150,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>64</v>
       </c>
@@ -8215,7 +9167,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>65</v>
       </c>
@@ -8232,7 +9184,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>66</v>
       </c>
@@ -8249,7 +9201,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>67</v>
       </c>
@@ -8266,7 +9218,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>68</v>
       </c>
@@ -8283,7 +9235,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>69</v>
       </c>
@@ -8300,7 +9252,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>70</v>
       </c>
@@ -8317,7 +9269,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>71</v>
       </c>
@@ -8334,7 +9286,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>72</v>
       </c>
@@ -8351,7 +9303,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>73</v>
       </c>
@@ -8368,7 +9320,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>74</v>
       </c>
@@ -8385,7 +9337,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>75</v>
       </c>
@@ -8402,7 +9354,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="52" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="23" t="s">
         <v>127</v>
       </c>
@@ -8461,7 +9413,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="24">
         <v>80</v>
       </c>
@@ -8475,7 +9427,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="24">
         <v>81</v>
       </c>
@@ -8492,7 +9444,7 @@
         <v>1.14E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="24">
         <v>82</v>
       </c>
@@ -8509,7 +9461,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="24">
         <v>83</v>
       </c>
@@ -8526,7 +9478,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="24">
         <v>84</v>
       </c>
@@ -8543,7 +9495,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="24">
         <v>85</v>
       </c>
@@ -8560,7 +9512,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="24">
         <v>86</v>
       </c>
@@ -8577,7 +9529,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="24">
         <v>87</v>
       </c>
@@ -8594,7 +9546,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="24">
         <v>88</v>
       </c>
@@ -8611,7 +9563,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="24">
         <v>89</v>
       </c>
@@ -8628,7 +9580,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="24">
         <v>90</v>
       </c>
@@ -8645,7 +9597,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="24">
         <v>91</v>
       </c>
@@ -8662,7 +9614,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="24">
         <v>92</v>
       </c>
@@ -8679,7 +9631,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="24">
         <v>93</v>
       </c>
@@ -8696,7 +9648,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="24">
         <v>94</v>
       </c>
@@ -8713,7 +9665,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="24">
         <v>95</v>
       </c>
@@ -8744,15 +9696,15 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="7" width="9" customWidth="1"/>
-    <col min="12" max="12" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.109375" customWidth="1"/>
-    <col min="24" max="24" width="11.44140625" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" customWidth="1"/>
+    <col min="24" max="24" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>127</v>
       </c>
@@ -8826,7 +9778,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8843,7 +9795,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>316</v>
       </c>
@@ -8860,7 +9812,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -8880,7 +9832,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -8900,7 +9852,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -8920,7 +9872,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>310</v>
       </c>
@@ -8940,7 +9892,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>313</v>
       </c>
@@ -8960,7 +9912,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -8983,7 +9935,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -8997,7 +9949,7 @@
         <v>63.475000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -9020,7 +9972,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -9043,7 +9995,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>329</v>
       </c>
@@ -9066,7 +10018,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10</v>
       </c>

--- a/output/ModelOutput.xlsx
+++ b/output/ModelOutput.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7185" firstSheet="14" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7188" firstSheet="21" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="RawRecruits" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,11 @@
     <sheet name="SR_GAMM" sheetId="18" r:id="rId17"/>
     <sheet name="GAMM_AICc_Era1" sheetId="21" r:id="rId18"/>
     <sheet name="GAMM_AICc_Era2" sheetId="22" r:id="rId19"/>
+    <sheet name="GAMM_AICc_Era2_V2" sheetId="27" r:id="rId20"/>
+    <sheet name="GAMM_TS" sheetId="25" r:id="rId21"/>
+    <sheet name="GAMM_TS_for_paper" sheetId="26" r:id="rId22"/>
+    <sheet name="GAMM_AICc_Era1_for_paper" sheetId="23" r:id="rId23"/>
+    <sheet name="GAMM_AICc_Era2_for_paper" sheetId="24" r:id="rId24"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -42,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="480">
   <si>
     <t>Model 1</t>
   </si>
@@ -1401,6 +1406,111 @@
   </si>
   <si>
     <t>CB females, FHS TBM (linear)</t>
+  </si>
+  <si>
+    <t>CB females, flathead sole TBM, AO 3 yr rolling average, PDO 3 yr rolling average</t>
+  </si>
+  <si>
+    <t>CB females, flathead sole TBM*era (linear), AO 3 yr rolling average*era (linear), PDO 3 yr rolling average*era (linear)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CB females, flathead sole TBM*era , PDO 3 yr rolling average*era </t>
+  </si>
+  <si>
+    <t>CB females, flathead sole TBM, AO 3 yr rolling average*era (linear)</t>
+  </si>
+  <si>
+    <t>CB females,  AO 3 yr rolling average*era, PDO 3 yr rolling average</t>
+  </si>
+  <si>
+    <t>CB females,  AO 3 yr rolling average*era</t>
+  </si>
+  <si>
+    <t>CB females, flathead sole TBM (linear), AO 3 yr rolling average*era , PDO 3 yr rolling average (linear)</t>
+  </si>
+  <si>
+    <t>CB females, flathead sole TBM  (linear), AO 3 yr rolling average*era (linear), PDO 3 yr rolling average (linear)</t>
+  </si>
+  <si>
+    <t>CB females, flathead sole TBM  (linear), AO 3 yr rolling average (linear), PDO 3 yr rolling average *era(linear)</t>
+  </si>
+  <si>
+    <t>CB females, flathead sole TBM  (linear), AO 3 yr rolling average *era(linear), PDO 3 yr rolling average *era(linear)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CB females, flathead sole TBM  </t>
+  </si>
+  <si>
+    <t>CB females, flathead sole TBM, Pacific cod 3 yr RA</t>
+  </si>
+  <si>
+    <t>CB females, flathead sole TBM, PDO 3 yr RA</t>
+  </si>
+  <si>
+    <t>CB females, FHS TBM, AO 3 yr RA</t>
+  </si>
+  <si>
+    <t>CB females, FHS TBM, PDO 3 yr RA</t>
+  </si>
+  <si>
+    <t>CB females, Pacific cod  3 yr RA</t>
+  </si>
+  <si>
+    <t>CB females, FHS TBM, NBT 3 yr RA</t>
+  </si>
+  <si>
+    <t>CB females, FHS TBM 2 yr RA</t>
+  </si>
+  <si>
+    <t>CB females, ovig CO females, Pacific cod 3 yr RA</t>
+  </si>
+  <si>
+    <t>CB females, ovig CO females, FHS TBM, Pacific cod 3 yr RA</t>
+  </si>
+  <si>
+    <t>CB females, ovig opilio females (linear)</t>
+  </si>
+  <si>
+    <t>CB females, Pacific cod 3 yr RA  (linear)</t>
+  </si>
+  <si>
+    <t>CB females, flathead sole TBM (linear), NE wind(linear)</t>
+  </si>
+  <si>
+    <t>CB females, flathead sole TBM (linear), SE wind</t>
+  </si>
+  <si>
+    <t>CB females, flathead sole TBM (linear), AO 3 yr RA (linear)</t>
+  </si>
+  <si>
+    <t>CB females, flathead sole TBM (linear), NBT 3 yr RA(linear)</t>
+  </si>
+  <si>
+    <t>CB females, flathead sole TBM (linear), May-July SST(linear)</t>
+  </si>
+  <si>
+    <t>CB females, flathead sole TBM (linear), Pacific cod 3 yr RA (linear)</t>
+  </si>
+  <si>
+    <t>CB females, flathead sole TBM (linear), PDO 3 yr RA( linear)</t>
+  </si>
+  <si>
+    <t>CB females, flathead sole TBM (linear), May-July SST (linear)</t>
+  </si>
+  <si>
+    <t>CB females, flathead sole TBM (linear), NBT 3 yr RA (linear)</t>
+  </si>
+  <si>
+    <t>CB females, flathead sole TBM (linear), NE wind (linear)</t>
+  </si>
+  <si>
+    <t>CB females, flathead sole TBM (linear), PDO 3 yr RA( linear), AO 3 yr RA (linear)</t>
+  </si>
+  <si>
+    <t>CB females,  PDO 3 yr rolling average*era</t>
+  </si>
+  <si>
+    <t>CB females,  PDO 3 yr rolling average*era (linear)</t>
   </si>
 </sst>
 </file>
@@ -1972,20 +2082,20 @@
       <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.140625" customWidth="1"/>
-    <col min="18" max="18" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.109375" customWidth="1"/>
+    <col min="18" max="18" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1993,7 +2103,7 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2004,7 +2114,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
@@ -2042,7 +2152,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
@@ -2081,7 +2191,7 @@
         <v>49.76</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
@@ -2117,7 +2227,7 @@
         <v>47.17</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
@@ -2155,7 +2265,7 @@
         <v>47.06</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
@@ -2187,7 +2297,7 @@
         <v>46.45</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
@@ -2201,7 +2311,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
@@ -2213,7 +2323,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>21</v>
       </c>
@@ -2225,12 +2335,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
       <c r="C11" s="2"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -2238,7 +2348,7 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
@@ -2249,7 +2359,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>3</v>
       </c>
@@ -2260,7 +2370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>4</v>
       </c>
@@ -2271,7 +2381,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>7</v>
       </c>
@@ -2282,7 +2392,7 @@
         <v>0.1452</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>8</v>
       </c>
@@ -2293,7 +2403,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>6</v>
       </c>
@@ -2304,7 +2414,7 @@
         <v>1.1599999999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
         <v>17</v>
       </c>
@@ -2313,7 +2423,7 @@
       </c>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
         <v>21</v>
       </c>
@@ -2322,12 +2432,12 @@
       </c>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B21" s="3"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>11</v>
       </c>
@@ -2335,7 +2445,7 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
         <v>1</v>
       </c>
@@ -2346,7 +2456,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
         <v>3</v>
       </c>
@@ -2357,7 +2467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
         <v>4</v>
       </c>
@@ -2368,7 +2478,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
         <v>7</v>
       </c>
@@ -2379,7 +2489,7 @@
         <v>5.33E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
         <v>12</v>
       </c>
@@ -2390,7 +2500,7 @@
         <v>8.8400000000000006E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
         <v>8</v>
       </c>
@@ -2401,7 +2511,7 @@
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
         <v>6</v>
       </c>
@@ -2412,7 +2522,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
         <v>17</v>
       </c>
@@ -2421,7 +2531,7 @@
       </c>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
         <v>21</v>
       </c>
@@ -2430,12 +2540,12 @@
       </c>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B32" s="3"/>
       <c r="C32" s="2"/>
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>10</v>
       </c>
@@ -2443,7 +2553,7 @@
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B34" s="3" t="s">
         <v>1</v>
       </c>
@@ -2454,7 +2564,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2465,7 +2575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B36" s="3" t="s">
         <v>4</v>
       </c>
@@ -2476,7 +2586,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B37" s="3" t="s">
         <v>8</v>
       </c>
@@ -2487,7 +2597,7 @@
         <v>1.1999999999999999E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B38" s="3" t="s">
         <v>6</v>
       </c>
@@ -2498,7 +2608,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B39" s="3" t="s">
         <v>17</v>
       </c>
@@ -2507,7 +2617,7 @@
       </c>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
         <v>21</v>
       </c>
@@ -2530,9 +2640,9 @@
       <selection sqref="A1:N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="29" t="s">
         <v>127</v>
       </c>
@@ -2576,7 +2686,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="31">
         <v>1</v>
       </c>
@@ -2598,7 +2708,7 @@
       <c r="M2" s="33"/>
       <c r="N2" s="33"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="31">
         <v>2</v>
       </c>
@@ -2620,7 +2730,7 @@
       <c r="M3" s="33"/>
       <c r="N3" s="33"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="31">
         <v>3</v>
       </c>
@@ -2644,7 +2754,7 @@
       <c r="M4" s="33"/>
       <c r="N4" s="33"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31">
         <v>4</v>
       </c>
@@ -2668,7 +2778,7 @@
       <c r="M5" s="33"/>
       <c r="N5" s="33"/>
     </row>
-    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="31">
         <v>5</v>
       </c>
@@ -2692,7 +2802,7 @@
       <c r="M6" s="33"/>
       <c r="N6" s="33"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="31">
         <v>6</v>
       </c>
@@ -2716,7 +2826,7 @@
       <c r="M7" s="33"/>
       <c r="N7" s="33"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="31">
         <v>7</v>
       </c>
@@ -2740,7 +2850,7 @@
       <c r="M8" s="33"/>
       <c r="N8" s="33"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="31">
         <v>8</v>
       </c>
@@ -2764,7 +2874,7 @@
       <c r="M9" s="33"/>
       <c r="N9" s="33"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="31">
         <v>9</v>
       </c>
@@ -2790,7 +2900,7 @@
       <c r="M10" s="33"/>
       <c r="N10" s="33"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="31">
         <v>10</v>
       </c>
@@ -2816,7 +2926,7 @@
       <c r="M11" s="33"/>
       <c r="N11" s="33"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="31">
         <v>11</v>
       </c>
@@ -2842,7 +2952,7 @@
       <c r="M12" s="33"/>
       <c r="N12" s="33"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="31">
         <v>12</v>
       </c>
@@ -2868,7 +2978,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="31">
         <v>13</v>
       </c>
@@ -2894,7 +3004,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="31">
         <v>14</v>
       </c>
@@ -2918,7 +3028,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="31">
         <v>15</v>
       </c>
@@ -2944,7 +3054,7 @@
       </c>
       <c r="N16" s="33"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="31">
         <v>16</v>
       </c>
@@ -2968,7 +3078,7 @@
       </c>
       <c r="N17" s="33"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="34" t="s">
         <v>370</v>
       </c>
@@ -2988,18 +3098,18 @@
       <selection pane="bottomLeft" activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="25.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="4" max="4" width="25.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" customWidth="1"/>
+    <col min="11" max="11" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
         <v>127</v>
       </c>
@@ -3043,7 +3153,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="35">
         <v>1</v>
       </c>
@@ -3065,7 +3175,7 @@
       <c r="M2" s="22"/>
       <c r="N2" s="22"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="35">
         <v>2</v>
       </c>
@@ -3087,7 +3197,7 @@
       <c r="M3" s="22"/>
       <c r="N3" s="22"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="35">
         <v>3</v>
       </c>
@@ -3111,7 +3221,7 @@
       <c r="M4" s="22"/>
       <c r="N4" s="22"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="35">
         <v>4</v>
       </c>
@@ -3135,7 +3245,7 @@
       <c r="M5" s="22"/>
       <c r="N5" s="22"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="35">
         <v>5</v>
       </c>
@@ -3159,7 +3269,7 @@
       <c r="M6" s="22"/>
       <c r="N6" s="22"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="35">
         <v>6</v>
       </c>
@@ -3183,7 +3293,7 @@
       <c r="M7" s="22"/>
       <c r="N7" s="22"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="35">
         <v>7</v>
       </c>
@@ -3207,7 +3317,7 @@
       <c r="M8" s="22"/>
       <c r="N8" s="22"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="35">
         <v>8</v>
       </c>
@@ -3231,7 +3341,7 @@
       <c r="M9" s="22"/>
       <c r="N9" s="22"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="35">
         <v>9</v>
       </c>
@@ -3257,7 +3367,7 @@
       <c r="M10" s="22"/>
       <c r="N10" s="22"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="35">
         <v>10</v>
       </c>
@@ -3283,7 +3393,7 @@
       <c r="M11" s="22"/>
       <c r="N11" s="22"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="35">
         <v>11</v>
       </c>
@@ -3309,7 +3419,7 @@
       <c r="M12" s="22"/>
       <c r="N12" s="22"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="35">
         <v>12</v>
       </c>
@@ -3335,7 +3445,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="35">
         <v>13</v>
       </c>
@@ -3361,7 +3471,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="35">
         <v>14</v>
       </c>
@@ -3385,7 +3495,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="35">
         <v>15</v>
       </c>
@@ -3411,7 +3521,7 @@
       </c>
       <c r="N16" s="22"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="37">
         <v>16</v>
       </c>
@@ -3435,7 +3545,7 @@
       </c>
       <c r="N17" s="38"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>127</v>
       </c>
@@ -3449,7 +3559,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="35">
         <v>1</v>
       </c>
@@ -3460,7 +3570,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="35">
         <v>2</v>
       </c>
@@ -3475,7 +3585,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="35">
         <v>3</v>
       </c>
@@ -3490,7 +3600,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="35">
         <v>4</v>
       </c>
@@ -3505,7 +3615,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="35">
         <v>5</v>
       </c>
@@ -3520,7 +3630,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="35">
         <v>6</v>
       </c>
@@ -3535,7 +3645,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="35">
         <v>7</v>
       </c>
@@ -3550,7 +3660,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="35">
         <v>8</v>
       </c>
@@ -3565,7 +3675,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="35">
         <v>9</v>
       </c>
@@ -3580,7 +3690,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="35">
         <v>10</v>
       </c>
@@ -3595,7 +3705,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="35">
         <v>11</v>
       </c>
@@ -3610,7 +3720,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="35">
         <v>12</v>
       </c>
@@ -3625,7 +3735,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="35">
         <v>13</v>
       </c>
@@ -3640,7 +3750,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="35">
         <v>14</v>
       </c>
@@ -3655,7 +3765,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="35">
         <v>15</v>
       </c>
@@ -3670,7 +3780,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="35">
         <v>16</v>
       </c>
@@ -3685,7 +3795,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="35">
         <v>17</v>
       </c>
@@ -3700,7 +3810,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3714,13 +3824,13 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" customWidth="1"/>
     <col min="4" max="4" width="56" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>127</v>
       </c>
@@ -3734,7 +3844,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>16</v>
       </c>
@@ -3748,7 +3858,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>13</v>
       </c>
@@ -3762,7 +3872,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>6</v>
       </c>
@@ -3776,7 +3886,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>12</v>
       </c>
@@ -3790,7 +3900,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>8</v>
       </c>
@@ -3804,7 +3914,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>10</v>
       </c>
@@ -3818,7 +3928,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>9</v>
       </c>
@@ -3832,7 +3942,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>11</v>
       </c>
@@ -3846,7 +3956,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>14</v>
       </c>
@@ -3860,7 +3970,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>4</v>
       </c>
@@ -3874,7 +3984,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>7</v>
       </c>
@@ -3888,7 +3998,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>17</v>
       </c>
@@ -3902,7 +4012,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>2</v>
       </c>
@@ -3916,7 +4026,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>3</v>
       </c>
@@ -3930,7 +4040,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>5</v>
       </c>
@@ -3944,7 +4054,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>1</v>
       </c>
@@ -3958,7 +4068,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>15</v>
       </c>
@@ -3988,13 +4098,13 @@
       <selection sqref="A1:D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" customWidth="1"/>
     <col min="4" max="4" width="56" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>127</v>
       </c>
@@ -4008,7 +4118,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -4022,7 +4132,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -4037,7 +4147,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -4052,7 +4162,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -4067,7 +4177,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -4082,7 +4192,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -4097,7 +4207,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -4112,7 +4222,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -4127,7 +4237,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -4142,7 +4252,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -4157,7 +4267,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -4172,7 +4282,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>12</v>
       </c>
@@ -4187,7 +4297,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>13</v>
       </c>
@@ -4202,7 +4312,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>14</v>
       </c>
@@ -4217,19 +4327,19 @@
         <v>403</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="41"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="41"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -4248,14 +4358,14 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>127</v>
       </c>
@@ -4269,7 +4379,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>7</v>
       </c>
@@ -4283,7 +4393,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4297,7 +4407,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>5</v>
       </c>
@@ -4311,7 +4421,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>6</v>
       </c>
@@ -4325,7 +4435,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>8</v>
       </c>
@@ -4339,7 +4449,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>11</v>
       </c>
@@ -4353,7 +4463,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>12</v>
       </c>
@@ -4367,7 +4477,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>13</v>
       </c>
@@ -4381,7 +4491,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10</v>
       </c>
@@ -4395,7 +4505,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -4409,7 +4519,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>14</v>
       </c>
@@ -4423,7 +4533,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3</v>
       </c>
@@ -4437,7 +4547,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -4451,7 +4561,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>4</v>
       </c>
@@ -4482,13 +4592,13 @@
       <selection sqref="A1:D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>127</v>
       </c>
@@ -4502,7 +4612,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4516,7 +4626,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4531,7 +4641,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4546,7 +4656,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4561,7 +4671,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4576,7 +4686,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4591,7 +4701,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4606,7 +4716,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4621,7 +4731,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4636,7 +4746,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4651,7 +4761,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4666,7 +4776,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4681,7 +4791,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4696,7 +4806,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4711,7 +4821,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4726,7 +4836,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4741,7 +4851,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4756,7 +4866,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4771,7 +4881,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4786,7 +4896,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4801,7 +4911,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4816,7 +4926,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4831,7 +4941,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4846,7 +4956,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4861,7 +4971,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4889,14 +4999,14 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="59" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>127</v>
       </c>
@@ -4910,7 +5020,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>12</v>
       </c>
@@ -4924,7 +5034,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>25</v>
       </c>
@@ -4938,7 +5048,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>20</v>
       </c>
@@ -4952,7 +5062,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>24</v>
       </c>
@@ -4966,7 +5076,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -4980,7 +5090,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>17</v>
       </c>
@@ -4994,7 +5104,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5</v>
       </c>
@@ -5008,7 +5118,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>16</v>
       </c>
@@ -5022,7 +5132,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>13</v>
       </c>
@@ -5036,7 +5146,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3</v>
       </c>
@@ -5050,7 +5160,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>4</v>
       </c>
@@ -5064,7 +5174,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>18</v>
       </c>
@@ -5078,7 +5188,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>22</v>
       </c>
@@ -5092,7 +5202,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>19</v>
       </c>
@@ -5106,7 +5216,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>21</v>
       </c>
@@ -5120,7 +5230,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2</v>
       </c>
@@ -5134,7 +5244,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>14</v>
       </c>
@@ -5148,7 +5258,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>7</v>
       </c>
@@ -5162,7 +5272,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>9</v>
       </c>
@@ -5176,7 +5286,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1</v>
       </c>
@@ -5190,7 +5300,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>15</v>
       </c>
@@ -5204,7 +5314,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>8</v>
       </c>
@@ -5218,7 +5328,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>10</v>
       </c>
@@ -5232,7 +5342,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>11</v>
       </c>
@@ -5246,7 +5356,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>23</v>
       </c>
@@ -5273,15 +5383,16 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A2" sqref="A2:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="25" t="s">
@@ -5289,7 +5400,7 @@
       </c>
       <c r="D1" s="10"/>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="19" t="s">
         <v>79</v>
@@ -5301,7 +5412,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
@@ -5315,7 +5426,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>432</v>
       </c>
@@ -5329,7 +5440,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>17</v>
       </c>
@@ -5343,7 +5454,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>21</v>
       </c>
@@ -5364,20 +5475,20 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection sqref="A1:E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="54.42578125" customWidth="1"/>
+    <col min="5" max="5" width="54.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>127</v>
       </c>
@@ -5394,7 +5505,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5412,7 +5523,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5420,7 +5531,7 @@
         <v>55.75</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C14" si="0">B3-$B$2</f>
+        <f t="shared" ref="C3:C23" si="0">B3-$B$2</f>
         <v>13.29</v>
       </c>
       <c r="D3">
@@ -5430,7 +5541,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5448,7 +5559,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5466,7 +5577,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5484,7 +5595,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5502,7 +5613,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5520,7 +5631,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5538,7 +5649,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5556,7 +5667,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5574,7 +5685,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5592,7 +5703,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5610,7 +5721,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5626,6 +5737,168 @@
       </c>
       <c r="E14" t="s">
         <v>443</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>47.08</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>4.6199999999999974</v>
+      </c>
+      <c r="D15">
+        <v>1.6E-2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>47.77</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>5.3100000000000023</v>
+      </c>
+      <c r="D16">
+        <v>0.12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>48.45</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>5.990000000000002</v>
+      </c>
+      <c r="D17">
+        <v>-0.27</v>
+      </c>
+      <c r="E17" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>50.75</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="D18">
+        <v>-0.36</v>
+      </c>
+      <c r="E18" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>48.32</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>5.8599999999999994</v>
+      </c>
+      <c r="D19">
+        <v>-0.33</v>
+      </c>
+      <c r="E19" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>47.56</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>5.1000000000000014</v>
+      </c>
+      <c r="D20">
+        <v>-0.37</v>
+      </c>
+      <c r="E20" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>48.7</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>6.240000000000002</v>
+      </c>
+      <c r="D21">
+        <v>-0.31</v>
+      </c>
+      <c r="E21" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>48.78</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>6.32</v>
+      </c>
+      <c r="D22">
+        <v>-0.32</v>
+      </c>
+      <c r="E22" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>48.77</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>6.3100000000000023</v>
+      </c>
+      <c r="D23">
+        <v>-0.32</v>
+      </c>
+      <c r="E23" t="s">
+        <v>456</v>
       </c>
     </row>
   </sheetData>
@@ -5637,18 +5910,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="64" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>127</v>
       </c>
@@ -5665,7 +5938,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5683,7 +5956,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5701,7 +5974,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5719,7 +5992,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5737,7 +6010,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5755,7 +6028,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5773,7 +6046,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5791,7 +6064,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5809,7 +6082,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5827,7 +6100,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5845,7 +6118,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5863,7 +6136,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5881,7 +6154,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5899,7 +6172,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5917,7 +6190,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5935,7 +6208,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5953,7 +6226,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -5971,7 +6244,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5989,7 +6262,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -6007,7 +6280,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -6025,7 +6298,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -6043,7 +6316,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -6061,7 +6334,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -6079,7 +6352,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -6097,7 +6370,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -6115,7 +6388,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -6133,7 +6406,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -6151,7 +6424,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -6182,20 +6455,20 @@
       <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -6230,7 +6503,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -6268,7 +6541,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
@@ -6303,7 +6576,7 @@
         <v>84.55</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
@@ -6341,7 +6614,7 @@
         <v>81.96</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
@@ -6376,7 +6649,7 @@
         <v>81.2</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
@@ -6408,7 +6681,7 @@
         <v>82.03</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
@@ -6437,7 +6710,7 @@
         <v>80.47</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
@@ -6448,7 +6721,7 @@
         <v>0.97460000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
@@ -6457,7 +6730,7 @@
       </c>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>21</v>
       </c>
@@ -6466,12 +6739,12 @@
       </c>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
       <c r="C11" s="2"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -6479,7 +6752,7 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
@@ -6490,7 +6763,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>3</v>
       </c>
@@ -6501,7 +6774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>4</v>
       </c>
@@ -6512,7 +6785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>7</v>
       </c>
@@ -6523,7 +6796,7 @@
         <v>0.44629999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>8</v>
       </c>
@@ -6534,7 +6807,7 @@
         <v>1.8200000000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>6</v>
       </c>
@@ -6545,7 +6818,7 @@
         <v>0.26219999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
         <v>17</v>
       </c>
@@ -6554,7 +6827,7 @@
       </c>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
         <v>21</v>
       </c>
@@ -6563,12 +6836,12 @@
       </c>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B21" s="3"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
@@ -6576,7 +6849,7 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
         <v>1</v>
       </c>
@@ -6587,7 +6860,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
         <v>3</v>
       </c>
@@ -6598,7 +6871,7 @@
         <v>0.94220000000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
         <v>4</v>
       </c>
@@ -6609,7 +6882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
         <v>7</v>
       </c>
@@ -6620,7 +6893,7 @@
         <v>2.0799999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
         <v>12</v>
       </c>
@@ -6631,7 +6904,7 @@
         <v>2.69E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
         <v>8</v>
       </c>
@@ -6642,7 +6915,7 @@
         <v>2.3800000000000002E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
         <v>6</v>
       </c>
@@ -6653,7 +6926,7 @@
         <v>0.1394</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
         <v>17</v>
       </c>
@@ -6662,7 +6935,7 @@
       </c>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
         <v>21</v>
       </c>
@@ -6671,12 +6944,12 @@
       </c>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>18</v>
       </c>
@@ -6684,7 +6957,7 @@
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B34" s="3" t="s">
         <v>1</v>
       </c>
@@ -6695,7 +6968,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B35" s="3" t="s">
         <v>3</v>
       </c>
@@ -6706,7 +6979,7 @@
         <v>0.6915</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B36" s="3" t="s">
         <v>4</v>
       </c>
@@ -6717,7 +6990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B37" s="3" t="s">
         <v>7</v>
       </c>
@@ -6728,7 +7001,7 @@
         <v>3.3399999999999999E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B38" s="3" t="s">
         <v>12</v>
       </c>
@@ -6739,7 +7012,7 @@
         <v>4.2799999999999998E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B39" s="3" t="s">
         <v>8</v>
       </c>
@@ -6750,7 +7023,7 @@
         <v>4.0899999999999999E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
         <v>17</v>
       </c>
@@ -6759,7 +7032,7 @@
       </c>
       <c r="D40" s="3"/>
     </row>
-    <row r="41" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B41" s="3" t="s">
         <v>21</v>
       </c>
@@ -6768,12 +7041,12 @@
       </c>
       <c r="D41" s="3"/>
     </row>
-    <row r="42" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>19</v>
       </c>
@@ -6781,7 +7054,7 @@
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B44" s="3" t="s">
         <v>1</v>
       </c>
@@ -6792,7 +7065,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B45" s="3" t="s">
         <v>3</v>
       </c>
@@ -6803,7 +7076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B46" s="3" t="s">
         <v>4</v>
       </c>
@@ -6814,7 +7087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B47" s="3" t="s">
         <v>8</v>
       </c>
@@ -6825,7 +7098,7 @@
         <v>2.2100000000000002E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B48" s="3" t="s">
         <v>6</v>
       </c>
@@ -6836,7 +7109,7 @@
         <v>0.2676</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B49" s="3" t="s">
         <v>17</v>
       </c>
@@ -6845,7 +7118,7 @@
       </c>
       <c r="D49" s="3"/>
     </row>
-    <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B50" s="3" t="s">
         <v>21</v>
       </c>
@@ -6854,12 +7127,12 @@
       </c>
       <c r="D50" s="3"/>
     </row>
-    <row r="51" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
     </row>
-    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>20</v>
       </c>
@@ -6867,7 +7140,7 @@
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
     </row>
-    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B53" s="3" t="s">
         <v>1</v>
       </c>
@@ -6878,7 +7151,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B54" s="3" t="s">
         <v>3</v>
       </c>
@@ -6889,7 +7162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B55" s="3" t="s">
         <v>4</v>
       </c>
@@ -6900,7 +7173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B56" s="3" t="s">
         <v>8</v>
       </c>
@@ -6911,7 +7184,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B57" s="3" t="s">
         <v>17</v>
       </c>
@@ -6920,7 +7193,7 @@
       </c>
       <c r="D57" s="3"/>
     </row>
-    <row r="58" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B58" s="3" t="s">
         <v>21</v>
       </c>
@@ -6930,6 +7203,1938 @@
       <c r="D58" s="3"/>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>48.69</v>
+      </c>
+      <c r="C2">
+        <f>B2-$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0.46</v>
+      </c>
+      <c r="E2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>54.66</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C27" si="0">B3-$B$2</f>
+        <v>5.9699999999999989</v>
+      </c>
+      <c r="D3">
+        <v>0.22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>55.96</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>7.2700000000000031</v>
+      </c>
+      <c r="D4">
+        <v>0.5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>65.88</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>17.189999999999998</v>
+      </c>
+      <c r="D5">
+        <v>0.16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>58.91</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>10.219999999999999</v>
+      </c>
+      <c r="D6">
+        <v>-0.11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>49.96</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>1.2700000000000031</v>
+      </c>
+      <c r="D7">
+        <v>0.1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>43.72</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>-4.9699999999999989</v>
+      </c>
+      <c r="D8">
+        <v>0.75</v>
+      </c>
+      <c r="E8" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>55.86</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>7.1700000000000017</v>
+      </c>
+      <c r="D9">
+        <v>0.47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>54.68</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>5.990000000000002</v>
+      </c>
+      <c r="D10">
+        <v>0.75</v>
+      </c>
+      <c r="E10" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>55.46</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>6.7700000000000031</v>
+      </c>
+      <c r="D11">
+        <v>0.75</v>
+      </c>
+      <c r="E11" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>48.73</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>3.9999999999999147E-2</v>
+      </c>
+      <c r="D12">
+        <v>0.7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>52.9</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>4.2100000000000009</v>
+      </c>
+      <c r="D13">
+        <v>0.74</v>
+      </c>
+      <c r="E13" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>54.14</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>5.4500000000000028</v>
+      </c>
+      <c r="D14">
+        <v>0.74</v>
+      </c>
+      <c r="E14" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>47.77</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>-0.9199999999999946</v>
+      </c>
+      <c r="D15">
+        <v>0.74</v>
+      </c>
+      <c r="E15" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>49.05</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>0.35999999999999943</v>
+      </c>
+      <c r="D16">
+        <v>0.64</v>
+      </c>
+      <c r="E16" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>39.1</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>-9.5899999999999963</v>
+      </c>
+      <c r="D17">
+        <v>0.75</v>
+      </c>
+      <c r="E17" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>50.05</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>1.3599999999999994</v>
+      </c>
+      <c r="D18">
+        <v>0.22</v>
+      </c>
+      <c r="E18" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>52.67</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>3.980000000000004</v>
+      </c>
+      <c r="D19">
+        <v>0.47</v>
+      </c>
+      <c r="E19" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>42.93</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>-5.759999999999998</v>
+      </c>
+      <c r="D20">
+        <v>0.75</v>
+      </c>
+      <c r="E20" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>49.1</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>0.41000000000000369</v>
+      </c>
+      <c r="D21">
+        <v>0.75</v>
+      </c>
+      <c r="E21" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>36.979999999999997</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>-11.71</v>
+      </c>
+      <c r="D22">
+        <v>0.7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>41.15</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>-7.5399999999999991</v>
+      </c>
+      <c r="D23">
+        <v>0.74</v>
+      </c>
+      <c r="E23" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>42.39</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>-6.2999999999999972</v>
+      </c>
+      <c r="D24">
+        <v>0.74</v>
+      </c>
+      <c r="E24" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>-11.39</v>
+      </c>
+      <c r="D25">
+        <v>0.64</v>
+      </c>
+      <c r="E25" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>43.47</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>-5.2199999999999989</v>
+      </c>
+      <c r="D26">
+        <v>0.72</v>
+      </c>
+      <c r="E26" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>32.96</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>-15.729999999999997</v>
+      </c>
+      <c r="D27">
+        <v>0.71</v>
+      </c>
+      <c r="E27" t="s">
+        <v>477</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="103.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>78.36</v>
+      </c>
+      <c r="C2">
+        <f>B2-$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0.45</v>
+      </c>
+      <c r="E2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>67.77</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C9" si="0">B3-$B$2</f>
+        <v>-10.590000000000003</v>
+      </c>
+      <c r="D3">
+        <v>0.16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>71.17</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>-7.1899999999999977</v>
+      </c>
+      <c r="D4">
+        <v>0.35</v>
+      </c>
+      <c r="E4" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>73.569999999999993</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>-4.7900000000000063</v>
+      </c>
+      <c r="D5">
+        <v>0.43</v>
+      </c>
+      <c r="E5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>94.76</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>16.400000000000006</v>
+      </c>
+      <c r="D6">
+        <v>0.22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>93.52</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>15.159999999999997</v>
+      </c>
+      <c r="D7">
+        <v>0.36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>65.13</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>-13.230000000000004</v>
+      </c>
+      <c r="D8">
+        <v>0.24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>64.150000000000006</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>-14.209999999999994</v>
+      </c>
+      <c r="D9">
+        <v>0.43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>66.23</v>
+      </c>
+      <c r="C10">
+        <f>B10-$B$2</f>
+        <v>-12.129999999999995</v>
+      </c>
+      <c r="D10">
+        <v>0.41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>63.98</v>
+      </c>
+      <c r="C11">
+        <f>B11-$B$2</f>
+        <v>-14.380000000000003</v>
+      </c>
+      <c r="D11">
+        <v>0.4</v>
+      </c>
+      <c r="E11" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>64.959999999999994</v>
+      </c>
+      <c r="C12">
+        <f>B12-$B$2</f>
+        <v>-13.400000000000006</v>
+      </c>
+      <c r="D12">
+        <v>0.49</v>
+      </c>
+      <c r="E12" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>91.14</v>
+      </c>
+      <c r="C13">
+        <f>B13-$B$2</f>
+        <v>12.780000000000001</v>
+      </c>
+      <c r="D13">
+        <v>0.3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>87.39</v>
+      </c>
+      <c r="C14">
+        <f>B14-$B$2</f>
+        <v>9.0300000000000011</v>
+      </c>
+      <c r="D14">
+        <v>0.35</v>
+      </c>
+      <c r="E14" t="s">
+        <v>479</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.88671875" customWidth="1"/>
+    <col min="5" max="5" width="81.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>63.98</v>
+      </c>
+      <c r="C2">
+        <v>-14.380000000000003</v>
+      </c>
+      <c r="D2">
+        <v>0.4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>64.150000000000006</v>
+      </c>
+      <c r="C3">
+        <v>-14.209999999999994</v>
+      </c>
+      <c r="D3">
+        <v>0.43</v>
+      </c>
+      <c r="E3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>64.959999999999994</v>
+      </c>
+      <c r="C4">
+        <v>-13.400000000000006</v>
+      </c>
+      <c r="D4">
+        <v>0.49</v>
+      </c>
+      <c r="E4" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>65.13</v>
+      </c>
+      <c r="C5">
+        <v>-13.230000000000004</v>
+      </c>
+      <c r="D5">
+        <v>0.24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>66.23</v>
+      </c>
+      <c r="C6">
+        <v>-12.129999999999995</v>
+      </c>
+      <c r="D6">
+        <v>0.41</v>
+      </c>
+      <c r="E6" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>67.77</v>
+      </c>
+      <c r="C7">
+        <v>-10.590000000000003</v>
+      </c>
+      <c r="D7">
+        <v>0.16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>71.17</v>
+      </c>
+      <c r="C8">
+        <v>-7.1899999999999977</v>
+      </c>
+      <c r="D8">
+        <v>0.35</v>
+      </c>
+      <c r="E8" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>73.569999999999993</v>
+      </c>
+      <c r="C9">
+        <v>-4.7900000000000063</v>
+      </c>
+      <c r="D9">
+        <v>0.43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>78.36</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0.45</v>
+      </c>
+      <c r="E10" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>87.39</v>
+      </c>
+      <c r="C11">
+        <v>9.0300000000000011</v>
+      </c>
+      <c r="D11">
+        <v>0.35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>91.14</v>
+      </c>
+      <c r="C12">
+        <v>12.780000000000001</v>
+      </c>
+      <c r="D12">
+        <v>0.3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>93.52</v>
+      </c>
+      <c r="C13">
+        <v>15.159999999999997</v>
+      </c>
+      <c r="D13">
+        <v>0.36</v>
+      </c>
+      <c r="E13" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>94.76</v>
+      </c>
+      <c r="C14">
+        <v>16.400000000000006</v>
+      </c>
+      <c r="D14">
+        <v>0.22</v>
+      </c>
+      <c r="E14" t="s">
+        <v>449</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:E14">
+    <sortCondition ref="C2:C14"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="56.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>40.119999999999997</v>
+      </c>
+      <c r="C2">
+        <v>-2.3400000000000034</v>
+      </c>
+      <c r="D2">
+        <v>-0.32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>42.46</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0.18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>47.08</v>
+      </c>
+      <c r="C4">
+        <v>4.6199999999999974</v>
+      </c>
+      <c r="D4">
+        <v>1.6E-2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <v>47.56</v>
+      </c>
+      <c r="C5">
+        <v>5.1000000000000014</v>
+      </c>
+      <c r="D5">
+        <v>-0.37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>47.77</v>
+      </c>
+      <c r="C6">
+        <v>5.3100000000000023</v>
+      </c>
+      <c r="D6">
+        <v>0.12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>48.32</v>
+      </c>
+      <c r="C7">
+        <v>5.8599999999999994</v>
+      </c>
+      <c r="D7">
+        <v>-0.33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>48.45</v>
+      </c>
+      <c r="C8">
+        <v>5.990000000000002</v>
+      </c>
+      <c r="D8">
+        <v>-0.27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>48.7</v>
+      </c>
+      <c r="C9">
+        <v>6.240000000000002</v>
+      </c>
+      <c r="D9">
+        <v>-0.31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>48.77</v>
+      </c>
+      <c r="C10">
+        <v>6.3100000000000023</v>
+      </c>
+      <c r="D10">
+        <v>-0.32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>48.78</v>
+      </c>
+      <c r="C11">
+        <v>6.32</v>
+      </c>
+      <c r="D11">
+        <v>-0.32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>21</v>
+      </c>
+      <c r="B12">
+        <v>48.78</v>
+      </c>
+      <c r="C12">
+        <v>6.32</v>
+      </c>
+      <c r="D12">
+        <v>-0.32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>50.75</v>
+      </c>
+      <c r="C13">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="D13">
+        <v>-0.36</v>
+      </c>
+      <c r="E13" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>55.75</v>
+      </c>
+      <c r="C14">
+        <v>13.29</v>
+      </c>
+      <c r="D14">
+        <v>0.02</v>
+      </c>
+      <c r="E14" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>56.43</v>
+      </c>
+      <c r="C15">
+        <v>13.969999999999999</v>
+      </c>
+      <c r="D15">
+        <v>0.12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>60.84</v>
+      </c>
+      <c r="C16">
+        <v>18.380000000000003</v>
+      </c>
+      <c r="D16">
+        <v>-0.31</v>
+      </c>
+      <c r="E16" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>68.95</v>
+      </c>
+      <c r="C17">
+        <v>26.490000000000002</v>
+      </c>
+      <c r="D17">
+        <v>-0.36</v>
+      </c>
+      <c r="E17" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>77.89</v>
+      </c>
+      <c r="C18">
+        <v>35.43</v>
+      </c>
+      <c r="D18">
+        <v>-0.37</v>
+      </c>
+      <c r="E18" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>78.650000000000006</v>
+      </c>
+      <c r="C19">
+        <v>36.190000000000005</v>
+      </c>
+      <c r="D19">
+        <v>-0.33</v>
+      </c>
+      <c r="E19" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>78.78</v>
+      </c>
+      <c r="C20">
+        <v>36.32</v>
+      </c>
+      <c r="D20">
+        <v>-0.27</v>
+      </c>
+      <c r="E20" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>79.040000000000006</v>
+      </c>
+      <c r="C21">
+        <v>36.580000000000005</v>
+      </c>
+      <c r="D21">
+        <v>-0.31</v>
+      </c>
+      <c r="E21" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>12</v>
+      </c>
+      <c r="B22">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="C22">
+        <v>36.639999999999993</v>
+      </c>
+      <c r="D22">
+        <v>-0.32</v>
+      </c>
+      <c r="E22" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>11</v>
+      </c>
+      <c r="B23">
+        <v>79.11</v>
+      </c>
+      <c r="C23">
+        <v>36.65</v>
+      </c>
+      <c r="D23">
+        <v>-0.32</v>
+      </c>
+      <c r="E23" t="s">
+        <v>407</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:E23">
+    <sortCondition ref="C2:C23"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" customWidth="1"/>
+    <col min="4" max="4" width="5.88671875" customWidth="1"/>
+    <col min="5" max="5" width="69.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>26</v>
+      </c>
+      <c r="B2">
+        <v>32.96</v>
+      </c>
+      <c r="C2">
+        <v>-15.729999999999997</v>
+      </c>
+      <c r="D2">
+        <v>0.71</v>
+      </c>
+      <c r="E2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>36.979999999999997</v>
+      </c>
+      <c r="C3">
+        <v>-11.71</v>
+      </c>
+      <c r="D3">
+        <v>0.7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>24</v>
+      </c>
+      <c r="B4">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="C4">
+        <v>-11.39</v>
+      </c>
+      <c r="D4">
+        <v>0.64</v>
+      </c>
+      <c r="E4" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>39.1</v>
+      </c>
+      <c r="C5">
+        <v>-9.5899999999999963</v>
+      </c>
+      <c r="D5">
+        <v>0.75</v>
+      </c>
+      <c r="E5" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>41.15</v>
+      </c>
+      <c r="C6">
+        <v>-7.5399999999999991</v>
+      </c>
+      <c r="D6">
+        <v>0.74</v>
+      </c>
+      <c r="E6" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>23</v>
+      </c>
+      <c r="B7">
+        <v>42.39</v>
+      </c>
+      <c r="C7">
+        <v>-6.2999999999999972</v>
+      </c>
+      <c r="D7">
+        <v>0.74</v>
+      </c>
+      <c r="E7" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>42.93</v>
+      </c>
+      <c r="C8">
+        <v>-5.759999999999998</v>
+      </c>
+      <c r="D8">
+        <v>0.75</v>
+      </c>
+      <c r="E8" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>25</v>
+      </c>
+      <c r="B9">
+        <v>43.47</v>
+      </c>
+      <c r="C9">
+        <v>-5.2199999999999989</v>
+      </c>
+      <c r="D9">
+        <v>0.72</v>
+      </c>
+      <c r="E9" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>43.72</v>
+      </c>
+      <c r="C10">
+        <v>-4.9699999999999989</v>
+      </c>
+      <c r="D10">
+        <v>0.75</v>
+      </c>
+      <c r="E10" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>47.77</v>
+      </c>
+      <c r="C11">
+        <v>-0.9199999999999946</v>
+      </c>
+      <c r="D11">
+        <v>0.74</v>
+      </c>
+      <c r="E11" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>48.69</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0.46</v>
+      </c>
+      <c r="E12" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>48.73</v>
+      </c>
+      <c r="C13">
+        <v>3.9999999999999147E-2</v>
+      </c>
+      <c r="D13">
+        <v>0.7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>49.05</v>
+      </c>
+      <c r="C14">
+        <v>0.35999999999999943</v>
+      </c>
+      <c r="D14">
+        <v>0.64</v>
+      </c>
+      <c r="E14" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>49.1</v>
+      </c>
+      <c r="C15">
+        <v>0.41000000000000369</v>
+      </c>
+      <c r="D15">
+        <v>0.75</v>
+      </c>
+      <c r="E15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>49.96</v>
+      </c>
+      <c r="C16">
+        <v>1.2700000000000031</v>
+      </c>
+      <c r="D16">
+        <v>0.1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>50.05</v>
+      </c>
+      <c r="C17">
+        <v>1.3599999999999994</v>
+      </c>
+      <c r="D17">
+        <v>0.22</v>
+      </c>
+      <c r="E17" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>52.67</v>
+      </c>
+      <c r="C18">
+        <v>3.980000000000004</v>
+      </c>
+      <c r="D18">
+        <v>0.47</v>
+      </c>
+      <c r="E18" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>12</v>
+      </c>
+      <c r="B19">
+        <v>52.9</v>
+      </c>
+      <c r="C19">
+        <v>4.2100000000000009</v>
+      </c>
+      <c r="D19">
+        <v>0.74</v>
+      </c>
+      <c r="E19" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>13</v>
+      </c>
+      <c r="B20">
+        <v>54.14</v>
+      </c>
+      <c r="C20">
+        <v>5.4500000000000028</v>
+      </c>
+      <c r="D20">
+        <v>0.74</v>
+      </c>
+      <c r="E20" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>54.66</v>
+      </c>
+      <c r="C21">
+        <v>5.9699999999999989</v>
+      </c>
+      <c r="D21">
+        <v>0.22</v>
+      </c>
+      <c r="E21" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>54.68</v>
+      </c>
+      <c r="C22">
+        <v>5.990000000000002</v>
+      </c>
+      <c r="D22">
+        <v>0.75</v>
+      </c>
+      <c r="E22" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>10</v>
+      </c>
+      <c r="B23">
+        <v>55.46</v>
+      </c>
+      <c r="C23">
+        <v>6.7700000000000031</v>
+      </c>
+      <c r="D23">
+        <v>0.75</v>
+      </c>
+      <c r="E23" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>8</v>
+      </c>
+      <c r="B24">
+        <v>55.86</v>
+      </c>
+      <c r="C24">
+        <v>7.1700000000000017</v>
+      </c>
+      <c r="D24">
+        <v>0.47</v>
+      </c>
+      <c r="E24" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>55.96</v>
+      </c>
+      <c r="C25">
+        <v>7.2700000000000031</v>
+      </c>
+      <c r="D25">
+        <v>0.5</v>
+      </c>
+      <c r="E25" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>58.91</v>
+      </c>
+      <c r="C26">
+        <v>10.219999999999999</v>
+      </c>
+      <c r="D26">
+        <v>-0.11</v>
+      </c>
+      <c r="E26" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>65.88</v>
+      </c>
+      <c r="C27">
+        <v>17.189999999999998</v>
+      </c>
+      <c r="D27">
+        <v>0.16</v>
+      </c>
+      <c r="E27" t="s">
+        <v>464</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:E27">
+    <sortCondition ref="C2:C27"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6942,20 +9147,20 @@
       <selection sqref="A1:K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
         <v>76</v>
@@ -6988,7 +9193,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -7021,7 +9226,7 @@
         <v>49.76</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -7052,7 +9257,7 @@
         <v>47.17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -7085,7 +9290,7 @@
         <v>47.06</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -7114,7 +9319,7 @@
         <v>46.45</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -7147,7 +9352,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
@@ -7178,7 +9383,7 @@
         <v>84.55</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>46</v>
       </c>
@@ -7211,7 +9416,7 @@
         <v>81.96</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>47</v>
       </c>
@@ -7242,7 +9447,7 @@
         <v>81.2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -7271,7 +9476,7 @@
         <v>82.03</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
@@ -7312,22 +9517,22 @@
       <selection sqref="A1:K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" customWidth="1"/>
-    <col min="10" max="10" width="4.85546875" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.88671875" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" customWidth="1"/>
+    <col min="10" max="10" width="4.88671875" customWidth="1"/>
+    <col min="11" max="11" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="13"/>
       <c r="B1" s="13" t="s">
         <v>89</v>
@@ -7360,7 +9565,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -7373,7 +9578,7 @@
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
@@ -7406,7 +9611,7 @@
         <v>49.76</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>9</v>
       </c>
@@ -7437,7 +9642,7 @@
         <v>47.17</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>11</v>
       </c>
@@ -7470,7 +9675,7 @@
         <v>47.06</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>10</v>
       </c>
@@ -7499,7 +9704,7 @@
         <v>46.45</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>14</v>
       </c>
@@ -7532,7 +9737,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>15</v>
       </c>
@@ -7563,7 +9768,7 @@
         <v>84.55</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>46</v>
       </c>
@@ -7596,7 +9801,7 @@
         <v>81.96</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>47</v>
       </c>
@@ -7627,7 +9832,7 @@
         <v>81.2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>19</v>
       </c>
@@ -7656,7 +9861,7 @@
         <v>82.03</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>20</v>
       </c>
@@ -7683,7 +9888,7 @@
         <v>80.47</v>
       </c>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
         <v>91</v>
       </c>
@@ -7702,19 +9907,19 @@
       <selection activeCell="B25" sqref="A1:B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -7722,7 +9927,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>80</v>
       </c>
@@ -7733,7 +9938,7 @@
         <v>-3.1602179999999999E-8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -7741,7 +9946,7 @@
         <v>0.75448789999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>81</v>
       </c>
@@ -7749,7 +9954,7 @@
         <v>114.1324</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>82</v>
       </c>
@@ -7757,7 +9962,7 @@
         <v>119.9953</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>83</v>
       </c>
@@ -7765,25 +9970,25 @@
         <v>-53.066200000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
@@ -7791,7 +9996,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>80</v>
       </c>
@@ -7802,7 +10007,7 @@
         <v>-3.4309010000000003E-8</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
@@ -7810,7 +10015,7 @@
         <v>0.62037410000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>81</v>
       </c>
@@ -7818,7 +10023,7 @@
         <v>130.20050000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>82</v>
       </c>
@@ -7826,7 +10031,7 @@
         <v>136.53460000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>83</v>
       </c>
@@ -7834,17 +10039,17 @@
         <v>-61.100259999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>3</v>
       </c>
@@ -7852,7 +10057,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>80</v>
       </c>
@@ -7860,7 +10065,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>17</v>
       </c>
@@ -7871,7 +10076,7 @@
         <v>-2.3578020000000001E-8</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>81</v>
       </c>
@@ -7879,7 +10084,7 @@
         <v>131.29929999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>82</v>
       </c>
@@ -7887,7 +10092,7 @@
         <v>137.5206</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>83</v>
       </c>
@@ -7909,14 +10114,14 @@
       <selection sqref="A1:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="25" t="s">
@@ -7924,7 +10129,7 @@
       </c>
       <c r="D1" s="10"/>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="19" t="s">
         <v>79</v>
@@ -7936,7 +10141,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
@@ -7950,7 +10155,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>80</v>
       </c>
@@ -7964,7 +10169,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>17</v>
       </c>
@@ -7978,13 +10183,13 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
     </row>
-    <row r="7" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10"/>
       <c r="B7" s="12"/>
       <c r="C7" s="25" t="s">
@@ -7992,7 +10197,7 @@
       </c>
       <c r="D7" s="12"/>
     </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="19" t="s">
         <v>79</v>
@@ -8004,7 +10209,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>3</v>
       </c>
@@ -8018,7 +10223,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>80</v>
       </c>
@@ -8032,7 +10237,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>17</v>
       </c>
@@ -8046,13 +10251,13 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="18"/>
       <c r="B12" s="18"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
     </row>
-    <row r="13" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10"/>
       <c r="B13" s="12"/>
       <c r="C13" s="25" t="s">
@@ -8060,7 +10265,7 @@
       </c>
       <c r="D13" s="12"/>
     </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="19" t="s">
         <v>79</v>
@@ -8072,7 +10277,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>3</v>
       </c>
@@ -8086,7 +10291,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>80</v>
       </c>
@@ -8100,7 +10305,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>17</v>
       </c>
@@ -8114,13 +10319,13 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="18"/>
       <c r="B18" s="12"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
     </row>
-    <row r="19" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10"/>
       <c r="B19" s="12"/>
       <c r="C19" s="25" t="s">
@@ -8128,7 +10333,7 @@
       </c>
       <c r="D19" s="12"/>
     </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="19" t="s">
         <v>79</v>
@@ -8140,7 +10345,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>3</v>
       </c>
@@ -8154,7 +10359,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>80</v>
       </c>
@@ -8168,7 +10373,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>17</v>
       </c>
@@ -8182,55 +10387,55 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="5"/>
     </row>
-    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="B32" s="5"/>
     </row>
-    <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
       <c r="B34" s="2"/>
     </row>
-    <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
       <c r="B35" s="2"/>
     </row>
-    <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
       <c r="B36" s="2"/>
     </row>
@@ -8248,13 +10453,13 @@
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="13"/>
       <c r="B1" s="13" t="s">
         <v>89</v>
@@ -8278,7 +10483,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -8288,7 +10493,7 @@
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
@@ -8314,7 +10519,7 @@
         <v>1314.7249999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>9</v>
       </c>
@@ -8338,7 +10543,7 @@
         <v>1302.212</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>10</v>
       </c>
@@ -8360,7 +10565,7 @@
         <v>1290.4110000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>14</v>
       </c>
@@ -8386,7 +10591,7 @@
         <v>93.784390000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>15</v>
       </c>
@@ -8410,7 +10615,7 @@
         <v>76.300929999999994</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>19</v>
       </c>
@@ -8432,7 +10637,7 @@
         <v>67.461749999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>20</v>
       </c>
@@ -8454,7 +10659,7 @@
         <v>64.301199999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>99</v>
       </c>
@@ -8474,7 +10679,7 @@
         <v>56.57602</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="16"/>
@@ -8484,7 +10689,7 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="16"/>
@@ -8507,17 +10712,17 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" customWidth="1"/>
+    <col min="12" max="12" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>127</v>
       </c>
@@ -8573,7 +10778,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>20</v>
       </c>
@@ -8584,7 +10789,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>21</v>
       </c>
@@ -8595,7 +10800,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>22</v>
       </c>
@@ -8606,7 +10811,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>23</v>
       </c>
@@ -8617,7 +10822,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>24</v>
       </c>
@@ -8628,7 +10833,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>25</v>
       </c>
@@ -8639,7 +10844,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>26</v>
       </c>
@@ -8650,7 +10855,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>27</v>
       </c>
@@ -8661,7 +10866,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>28</v>
       </c>
@@ -8672,7 +10877,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>29</v>
       </c>
@@ -8683,7 +10888,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>30</v>
       </c>
@@ -8694,7 +10899,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>31</v>
       </c>
@@ -8705,7 +10910,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>32</v>
       </c>
@@ -8716,7 +10921,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>33</v>
       </c>
@@ -8727,7 +10932,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>34</v>
       </c>
@@ -8738,7 +10943,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="21">
         <v>35</v>
       </c>
@@ -8749,7 +10954,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>127</v>
       </c>
@@ -8805,7 +11010,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>40</v>
       </c>
@@ -8816,7 +11021,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>41</v>
       </c>
@@ -8830,7 +11035,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>42</v>
       </c>
@@ -8844,7 +11049,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>43</v>
       </c>
@@ -8858,7 +11063,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>44</v>
       </c>
@@ -8872,7 +11077,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>45</v>
       </c>
@@ -8886,7 +11091,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>46</v>
       </c>
@@ -8900,7 +11105,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>47</v>
       </c>
@@ -8914,7 +11119,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>48</v>
       </c>
@@ -8928,7 +11133,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>49</v>
       </c>
@@ -8942,7 +11147,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>50</v>
       </c>
@@ -8956,7 +11161,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>51</v>
       </c>
@@ -8970,7 +11175,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>52</v>
       </c>
@@ -8984,7 +11189,7 @@
         <v>8.3199999999999996E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>53</v>
       </c>
@@ -8998,7 +11203,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>54</v>
       </c>
@@ -9012,7 +11217,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>55</v>
       </c>
@@ -9026,7 +11231,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="35" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="23" t="s">
         <v>127</v>
       </c>
@@ -9085,7 +11290,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>60</v>
       </c>
@@ -9099,7 +11304,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>61</v>
       </c>
@@ -9116,7 +11321,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>62</v>
       </c>
@@ -9133,7 +11338,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>63</v>
       </c>
@@ -9150,7 +11355,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>64</v>
       </c>
@@ -9167,7 +11372,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>65</v>
       </c>
@@ -9184,7 +11389,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>66</v>
       </c>
@@ -9201,7 +11406,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>67</v>
       </c>
@@ -9218,7 +11423,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>68</v>
       </c>
@@ -9235,7 +11440,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>69</v>
       </c>
@@ -9252,7 +11457,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>70</v>
       </c>
@@ -9269,7 +11474,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>71</v>
       </c>
@@ -9286,7 +11491,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>72</v>
       </c>
@@ -9303,7 +11508,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>73</v>
       </c>
@@ -9320,7 +11525,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>74</v>
       </c>
@@ -9337,7 +11542,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>75</v>
       </c>
@@ -9354,7 +11559,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="52" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="23" t="s">
         <v>127</v>
       </c>
@@ -9413,7 +11618,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" s="24">
         <v>80</v>
       </c>
@@ -9427,7 +11632,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" s="24">
         <v>81</v>
       </c>
@@ -9444,7 +11649,7 @@
         <v>1.14E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" s="24">
         <v>82</v>
       </c>
@@ -9461,7 +11666,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" s="24">
         <v>83</v>
       </c>
@@ -9478,7 +11683,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" s="24">
         <v>84</v>
       </c>
@@ -9495,7 +11700,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58" s="24">
         <v>85</v>
       </c>
@@ -9512,7 +11717,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" s="24">
         <v>86</v>
       </c>
@@ -9529,7 +11734,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60" s="24">
         <v>87</v>
       </c>
@@ -9546,7 +11751,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61" s="24">
         <v>88</v>
       </c>
@@ -9563,7 +11768,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62" s="24">
         <v>89</v>
       </c>
@@ -9580,7 +11785,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A63" s="24">
         <v>90</v>
       </c>
@@ -9597,7 +11802,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64" s="24">
         <v>91</v>
       </c>
@@ -9614,7 +11819,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A65" s="24">
         <v>92</v>
       </c>
@@ -9631,7 +11836,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A66" s="24">
         <v>93</v>
       </c>
@@ -9648,7 +11853,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A67" s="24">
         <v>94</v>
       </c>
@@ -9665,7 +11870,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A68" s="24">
         <v>95</v>
       </c>
@@ -9696,15 +11901,15 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="7" width="9" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" customWidth="1"/>
-    <col min="24" max="24" width="11.42578125" customWidth="1"/>
+    <col min="12" max="12" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.109375" customWidth="1"/>
+    <col min="24" max="24" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>127</v>
       </c>
@@ -9778,7 +11983,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9795,7 +12000,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>316</v>
       </c>
@@ -9812,7 +12017,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -9832,7 +12037,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -9852,7 +12057,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -9872,7 +12077,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>310</v>
       </c>
@@ -9892,7 +12097,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>313</v>
       </c>
@@ -9912,7 +12117,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6</v>
       </c>
@@ -9935,7 +12140,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>7</v>
       </c>
@@ -9949,7 +12154,7 @@
         <v>63.475000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>8</v>
       </c>
@@ -9972,7 +12177,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>9</v>
       </c>
@@ -9995,7 +12200,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>329</v>
       </c>
@@ -10018,7 +12223,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10</v>
       </c>
